--- a/AgentReport.xlsx
+++ b/AgentReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6093882-77CB-4208-B2E0-8EE6393AA4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA8B41-B119-4819-B7A2-6715A7D8C143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
+    <workbookView xWindow="2520" yWindow="2250" windowWidth="18900" windowHeight="11055" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="270">
   <si>
     <t>CAC40</t>
   </si>
@@ -839,6 +839,24 @@
   <si>
     <t>Portfolio
 Return</t>
+  </si>
+  <si>
+    <t>CloudMDH</t>
+  </si>
+  <si>
+    <t>FastPeriod: 90</t>
+  </si>
+  <si>
+    <t>FastPeriod: 15</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 86</t>
+  </si>
+  <si>
+    <t>FastPeriod: 14</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 35</t>
   </si>
 </sst>
 </file>
@@ -1219,13 +1237,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2636512B-AB2F-4D4F-86C0-AC168BC18305}">
-  <dimension ref="A1:T247"/>
+  <dimension ref="A1:T250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="R251" sqref="R251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15829,6 +15847,183 @@
         <v>147</v>
       </c>
     </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>44017.805555555555</v>
+      </c>
+      <c r="B248" t="s">
+        <v>80</v>
+      </c>
+      <c r="C248" t="s">
+        <v>89</v>
+      </c>
+      <c r="D248" t="s">
+        <v>23</v>
+      </c>
+      <c r="E248" t="s">
+        <v>264</v>
+      </c>
+      <c r="F248">
+        <v>20</v>
+      </c>
+      <c r="G248" s="1">
+        <v>-0.57533350000000005</v>
+      </c>
+      <c r="H248" s="1">
+        <v>46.674349999999997</v>
+      </c>
+      <c r="I248" s="1">
+        <v>-0.45500590000000002</v>
+      </c>
+      <c r="J248" s="1">
+        <v>0.64546369999999997</v>
+      </c>
+      <c r="K248" s="1">
+        <v>134.90190000000001</v>
+      </c>
+      <c r="L248" s="4">
+        <v>1074327000000000</v>
+      </c>
+      <c r="M248">
+        <v>209</v>
+      </c>
+      <c r="N248">
+        <v>92</v>
+      </c>
+      <c r="O248">
+        <v>117</v>
+      </c>
+      <c r="P248" s="7">
+        <v>0.78632480000000005</v>
+      </c>
+      <c r="Q248" s="1">
+        <v>10.865062</v>
+      </c>
+      <c r="R248" t="s">
+        <v>265</v>
+      </c>
+      <c r="S248" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>44017.898611111108</v>
+      </c>
+      <c r="B249" t="s">
+        <v>80</v>
+      </c>
+      <c r="C249" t="s">
+        <v>89</v>
+      </c>
+      <c r="D249" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" t="s">
+        <v>264</v>
+      </c>
+      <c r="F249">
+        <v>20</v>
+      </c>
+      <c r="G249" s="1">
+        <v>-0.4258112</v>
+      </c>
+      <c r="H249" s="1">
+        <v>13.743919999999999</v>
+      </c>
+      <c r="I249" s="1">
+        <v>-0.4351352</v>
+      </c>
+      <c r="J249" s="1">
+        <v>0.12033580000000001</v>
+      </c>
+      <c r="K249" s="1">
+        <v>158.72300000000001</v>
+      </c>
+      <c r="L249" s="4">
+        <v>4.7455030000000001E+30</v>
+      </c>
+      <c r="M249">
+        <v>1319</v>
+      </c>
+      <c r="N249">
+        <v>483</v>
+      </c>
+      <c r="O249">
+        <v>836</v>
+      </c>
+      <c r="P249" s="7">
+        <v>0.57775120000000002</v>
+      </c>
+      <c r="Q249" s="1">
+        <v>6.9059552000000002</v>
+      </c>
+      <c r="R249" t="s">
+        <v>266</v>
+      </c>
+      <c r="S249" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>44017.905555555553</v>
+      </c>
+      <c r="B250" t="s">
+        <v>80</v>
+      </c>
+      <c r="C250" t="s">
+        <v>89</v>
+      </c>
+      <c r="D250" t="s">
+        <v>23</v>
+      </c>
+      <c r="E250" t="s">
+        <v>264</v>
+      </c>
+      <c r="F250">
+        <v>20</v>
+      </c>
+      <c r="G250" s="1">
+        <v>-0.74479359999999994</v>
+      </c>
+      <c r="H250" s="1">
+        <v>36.251060000000003</v>
+      </c>
+      <c r="I250" s="1">
+        <v>-0.5805593</v>
+      </c>
+      <c r="J250" s="1">
+        <v>0.2698894</v>
+      </c>
+      <c r="K250" s="1">
+        <v>116.59220000000001</v>
+      </c>
+      <c r="L250" s="4">
+        <v>34526900000000</v>
+      </c>
+      <c r="M250">
+        <v>432</v>
+      </c>
+      <c r="N250">
+        <v>158</v>
+      </c>
+      <c r="O250">
+        <v>274</v>
+      </c>
+      <c r="P250" s="7">
+        <v>0.57664230000000005</v>
+      </c>
+      <c r="Q250" s="1">
+        <v>8.1509520000000002</v>
+      </c>
+      <c r="R250" t="s">
+        <v>268</v>
+      </c>
+      <c r="S250" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U247" xr:uid="{67A7261D-9A0C-4185-8BF0-B24DA906A389}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U247">

--- a/AgentReport.xlsx
+++ b/AgentReport.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA8B41-B119-4819-B7A2-6715A7D8C143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2050236A-2540-4E72-913B-89C1CB85665D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2250" windowWidth="18900" windowHeight="11055" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="312">
   <si>
     <t>CAC40</t>
   </si>
@@ -857,6 +859,132 @@
   </si>
   <si>
     <t>SlowPeriod: 35</t>
+  </si>
+  <si>
+    <t>NbTrade</t>
+  </si>
+  <si>
+    <t>NbWinTrade</t>
+  </si>
+  <si>
+    <t>NbLostTrade</t>
+  </si>
+  <si>
+    <t>MaxGain</t>
+  </si>
+  <si>
+    <t>MaxLoss</t>
+  </si>
+  <si>
+    <t>Max DD</t>
+  </si>
+  <si>
+    <t>Cumul Gain</t>
+  </si>
+  <si>
+    <t>Win Ratio</t>
+  </si>
+  <si>
+    <t>Expected Return</t>
+  </si>
+  <si>
+    <t>ExpectedGain</t>
+  </si>
+  <si>
+    <t>EMA2Lines</t>
+  </si>
+  <si>
+    <t>FastPeriod: 3</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 60</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 90</t>
+  </si>
+  <si>
+    <t>FastPeriod: 6</t>
+  </si>
+  <si>
+    <t>FastPeriod: 9</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 81</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 72</t>
+  </si>
+  <si>
+    <t>FastPeriod: 35</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 89</t>
+  </si>
+  <si>
+    <t>FastPeriod: 39</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 88</t>
+  </si>
+  <si>
+    <t>TrailHLBody</t>
+  </si>
+  <si>
+    <t>Period: 45</t>
+  </si>
+  <si>
+    <t>Period: 49</t>
+  </si>
+  <si>
+    <t>Period: 80</t>
+  </si>
+  <si>
+    <t>Period: 72</t>
+  </si>
+  <si>
+    <t>WinTradeRatio</t>
+  </si>
+  <si>
+    <t>Period: 74</t>
+  </si>
+  <si>
+    <t>Period: 91</t>
+  </si>
+  <si>
+    <t>Period: 100</t>
+  </si>
+  <si>
+    <t>Period: 186</t>
+  </si>
+  <si>
+    <t>Period: 283</t>
+  </si>
+  <si>
+    <t>WinLossRatio</t>
+  </si>
+  <si>
+    <t>Period: 109</t>
+  </si>
+  <si>
+    <t>TrailHIGHEST</t>
+  </si>
+  <si>
+    <t>Trigger: 77</t>
+  </si>
+  <si>
+    <t>Trigger: 61</t>
+  </si>
+  <si>
+    <t>Period: 50</t>
+  </si>
+  <si>
+    <t>Trigger: 90</t>
+  </si>
+  <si>
+    <t>TrailHIGHEST2</t>
+  </si>
+  <si>
+    <t>Trigger: 128</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2636512B-AB2F-4D4F-86C0-AC168BC18305}">
   <dimension ref="A1:T250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -16033,4 +16161,1590 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D621A45-9B8E-401F-BA56-458088F2CB39}">
+  <dimension ref="A1:Q32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44233.566666666666</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2">
+        <v>91</v>
+      </c>
+      <c r="G2">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <v>20.53153</v>
+      </c>
+      <c r="J2">
+        <v>-0.74439840000000002</v>
+      </c>
+      <c r="K2">
+        <v>-0.82019359999999997</v>
+      </c>
+      <c r="L2">
+        <v>90.545490000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.89583330000000005</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.99500540000000004</v>
+      </c>
+      <c r="O2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44233.566666666666</v>
+      </c>
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3">
+        <v>101</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>51</v>
+      </c>
+      <c r="I3">
+        <v>20.53153</v>
+      </c>
+      <c r="J3">
+        <v>-0.64181820000000001</v>
+      </c>
+      <c r="K3">
+        <v>-0.75249310000000003</v>
+      </c>
+      <c r="L3">
+        <v>92.156559999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.98039220000000005</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.91244119999999995</v>
+      </c>
+      <c r="O3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44234.529166666667</v>
+      </c>
+      <c r="B4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4">
+        <v>144</v>
+      </c>
+      <c r="G4">
+        <v>88</v>
+      </c>
+      <c r="H4">
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <v>14.126580000000001</v>
+      </c>
+      <c r="J4">
+        <v>-0.63324999999999998</v>
+      </c>
+      <c r="K4">
+        <v>-0.66225000000000001</v>
+      </c>
+      <c r="L4">
+        <v>118.9691</v>
+      </c>
+      <c r="M4">
+        <v>1.571429</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.82617399999999996</v>
+      </c>
+      <c r="O4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44233.564583333333</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5">
+        <v>158</v>
+      </c>
+      <c r="G5">
+        <v>86</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+      <c r="I5">
+        <v>12.12323</v>
+      </c>
+      <c r="J5">
+        <v>-0.51726320000000003</v>
+      </c>
+      <c r="K5">
+        <v>-0.71242110000000003</v>
+      </c>
+      <c r="L5">
+        <v>105.03100000000001</v>
+      </c>
+      <c r="M5">
+        <v>1.1944440000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.66475300000000004</v>
+      </c>
+      <c r="O5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44233.567361111112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6">
+        <v>148</v>
+      </c>
+      <c r="G6">
+        <v>81</v>
+      </c>
+      <c r="H6">
+        <v>67</v>
+      </c>
+      <c r="I6">
+        <v>10.76812</v>
+      </c>
+      <c r="J6">
+        <v>-0.51726320000000003</v>
+      </c>
+      <c r="K6">
+        <v>-0.71242110000000003</v>
+      </c>
+      <c r="L6">
+        <v>95.750209999999996</v>
+      </c>
+      <c r="M6">
+        <v>1.208955</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.64696089999999995</v>
+      </c>
+      <c r="O6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44232.974305555559</v>
+      </c>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F7">
+        <v>217</v>
+      </c>
+      <c r="G7">
+        <v>115</v>
+      </c>
+      <c r="H7">
+        <v>102</v>
+      </c>
+      <c r="I7">
+        <v>10.56701</v>
+      </c>
+      <c r="J7">
+        <v>-0.67600819999999995</v>
+      </c>
+      <c r="K7">
+        <v>-0.71242110000000003</v>
+      </c>
+      <c r="L7">
+        <v>131.08189999999999</v>
+      </c>
+      <c r="M7">
+        <v>1.127451</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.60406389999999999</v>
+      </c>
+      <c r="O7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44232.974999999999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8">
+        <v>214</v>
+      </c>
+      <c r="G8">
+        <v>116</v>
+      </c>
+      <c r="H8">
+        <v>98</v>
+      </c>
+      <c r="I8">
+        <v>10.56701</v>
+      </c>
+      <c r="J8">
+        <v>-0.67600819999999995</v>
+      </c>
+      <c r="K8">
+        <v>-0.71242110000000003</v>
+      </c>
+      <c r="L8">
+        <v>126.98609999999999</v>
+      </c>
+      <c r="M8">
+        <v>1.1836739999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.59339280000000005</v>
+      </c>
+      <c r="O8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44234.51458333333</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9">
+        <v>366</v>
+      </c>
+      <c r="G9">
+        <v>194</v>
+      </c>
+      <c r="H9">
+        <v>172</v>
+      </c>
+      <c r="I9">
+        <v>10.376580000000001</v>
+      </c>
+      <c r="J9">
+        <v>-0.92982849999999995</v>
+      </c>
+      <c r="K9">
+        <v>-0.92248929999999996</v>
+      </c>
+      <c r="L9">
+        <v>190.63399999999999</v>
+      </c>
+      <c r="M9">
+        <v>1.127907</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.52085789999999998</v>
+      </c>
+      <c r="O9" t="s">
+        <v>309</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44232.95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10">
+        <v>265</v>
+      </c>
+      <c r="G10">
+        <v>115</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>17.599219999999999</v>
+      </c>
+      <c r="J10">
+        <v>-0.5397149</v>
+      </c>
+      <c r="K10">
+        <v>-0.74562379999999995</v>
+      </c>
+      <c r="L10">
+        <v>133.08170000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.76666670000000003</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.50219510000000001</v>
+      </c>
+      <c r="O10" t="s">
+        <v>290</v>
+      </c>
+      <c r="P10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44232.95416666667</v>
+      </c>
+      <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11">
+        <v>312</v>
+      </c>
+      <c r="G11">
+        <v>157</v>
+      </c>
+      <c r="H11">
+        <v>155</v>
+      </c>
+      <c r="I11">
+        <v>12.773949999999999</v>
+      </c>
+      <c r="J11">
+        <v>-0.62055329999999997</v>
+      </c>
+      <c r="K11">
+        <v>-0.71242110000000003</v>
+      </c>
+      <c r="L11">
+        <v>149.22579999999999</v>
+      </c>
+      <c r="M11">
+        <v>1.0129030000000001</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.47828789999999999</v>
+      </c>
+      <c r="O11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44232.948611111111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12">
+        <v>293</v>
+      </c>
+      <c r="G12">
+        <v>121</v>
+      </c>
+      <c r="H12">
+        <v>172</v>
+      </c>
+      <c r="I12">
+        <v>12.6965</v>
+      </c>
+      <c r="J12">
+        <v>-0.52927199999999996</v>
+      </c>
+      <c r="K12">
+        <v>-0.74562379999999995</v>
+      </c>
+      <c r="L12">
+        <v>128.08320000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.70348829999999996</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.43714389999999997</v>
+      </c>
+      <c r="O12" t="s">
+        <v>288</v>
+      </c>
+      <c r="P12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44232.953472222223</v>
+      </c>
+      <c r="B13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13">
+        <v>344</v>
+      </c>
+      <c r="G13">
+        <v>175</v>
+      </c>
+      <c r="H13">
+        <v>169</v>
+      </c>
+      <c r="I13">
+        <v>13.68872</v>
+      </c>
+      <c r="J13">
+        <v>-0.62371120000000002</v>
+      </c>
+      <c r="K13">
+        <v>-0.71242110000000003</v>
+      </c>
+      <c r="L13">
+        <v>149.0352</v>
+      </c>
+      <c r="M13">
+        <v>1.0355030000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.43324200000000002</v>
+      </c>
+      <c r="O13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44232.95416666667</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14">
+        <v>344</v>
+      </c>
+      <c r="G14">
+        <v>175</v>
+      </c>
+      <c r="H14">
+        <v>169</v>
+      </c>
+      <c r="I14">
+        <v>13.68872</v>
+      </c>
+      <c r="J14">
+        <v>-0.62371120000000002</v>
+      </c>
+      <c r="K14">
+        <v>-0.71242110000000003</v>
+      </c>
+      <c r="L14">
+        <v>149.0352</v>
+      </c>
+      <c r="M14">
+        <v>1.0355030000000001</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.43324200000000002</v>
+      </c>
+      <c r="O14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44234.513194444444</v>
+      </c>
+      <c r="B15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15">
+        <v>520</v>
+      </c>
+      <c r="G15">
+        <v>267</v>
+      </c>
+      <c r="H15">
+        <v>253</v>
+      </c>
+      <c r="I15">
+        <v>10.41061</v>
+      </c>
+      <c r="J15">
+        <v>-0.70719240000000005</v>
+      </c>
+      <c r="K15">
+        <v>-0.74110790000000004</v>
+      </c>
+      <c r="L15">
+        <v>213.99930000000001</v>
+      </c>
+      <c r="M15">
+        <v>1.0553360000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.41153709999999999</v>
+      </c>
+      <c r="O15" t="s">
+        <v>306</v>
+      </c>
+      <c r="P15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44234.502083333333</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16">
+        <v>397</v>
+      </c>
+      <c r="G16">
+        <v>194</v>
+      </c>
+      <c r="H16">
+        <v>203</v>
+      </c>
+      <c r="I16">
+        <v>31.085560000000001</v>
+      </c>
+      <c r="J16">
+        <v>-0.63444440000000002</v>
+      </c>
+      <c r="K16">
+        <v>-0.6875</v>
+      </c>
+      <c r="L16">
+        <v>144.5206</v>
+      </c>
+      <c r="M16">
+        <v>0.95566510000000005</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.36403170000000001</v>
+      </c>
+      <c r="O16" t="s">
+        <v>306</v>
+      </c>
+      <c r="P16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44233.564583333333</v>
+      </c>
+      <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17">
+        <v>219</v>
+      </c>
+      <c r="G17">
+        <v>97</v>
+      </c>
+      <c r="H17">
+        <v>122</v>
+      </c>
+      <c r="I17">
+        <v>9.2213419999999999</v>
+      </c>
+      <c r="J17">
+        <v>-0.53203789999999995</v>
+      </c>
+      <c r="K17">
+        <v>-0.59007350000000003</v>
+      </c>
+      <c r="L17">
+        <v>74.976470000000006</v>
+      </c>
+      <c r="M17">
+        <v>0.79508199999999996</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.3423583</v>
+      </c>
+      <c r="O17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44233.564583333333</v>
+      </c>
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18">
+        <v>249</v>
+      </c>
+      <c r="G18">
+        <v>112</v>
+      </c>
+      <c r="H18">
+        <v>137</v>
+      </c>
+      <c r="I18">
+        <v>9.9864599999999992</v>
+      </c>
+      <c r="J18">
+        <v>-0.53203789999999995</v>
+      </c>
+      <c r="K18">
+        <v>-0.59007350000000003</v>
+      </c>
+      <c r="L18">
+        <v>82.507840000000002</v>
+      </c>
+      <c r="M18">
+        <v>0.81751819999999997</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.33135680000000001</v>
+      </c>
+      <c r="O18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44234.512499999997</v>
+      </c>
+      <c r="B19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19">
+        <v>645</v>
+      </c>
+      <c r="G19">
+        <v>336</v>
+      </c>
+      <c r="H19">
+        <v>309</v>
+      </c>
+      <c r="I19">
+        <v>10.41061</v>
+      </c>
+      <c r="J19">
+        <v>-0.46730159999999998</v>
+      </c>
+      <c r="K19">
+        <v>-0.50380950000000002</v>
+      </c>
+      <c r="L19">
+        <v>194.4922</v>
+      </c>
+      <c r="M19">
+        <v>1.0873790000000001</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.30153819999999998</v>
+      </c>
+      <c r="O19" t="s">
+        <v>306</v>
+      </c>
+      <c r="P19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44233.56527777778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20">
+        <v>504</v>
+      </c>
+      <c r="G20">
+        <v>232</v>
+      </c>
+      <c r="H20">
+        <v>272</v>
+      </c>
+      <c r="I20">
+        <v>17.525639999999999</v>
+      </c>
+      <c r="J20">
+        <v>-0.76019899999999996</v>
+      </c>
+      <c r="K20">
+        <v>-0.7522124</v>
+      </c>
+      <c r="L20">
+        <v>149.65039999999999</v>
+      </c>
+      <c r="M20">
+        <v>0.85294119999999995</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.2969253</v>
+      </c>
+      <c r="O20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44232.947916666664</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21">
+        <v>356</v>
+      </c>
+      <c r="G21">
+        <v>142</v>
+      </c>
+      <c r="H21">
+        <v>214</v>
+      </c>
+      <c r="I21">
+        <v>14.314780000000001</v>
+      </c>
+      <c r="J21">
+        <v>-0.53714289999999998</v>
+      </c>
+      <c r="K21">
+        <v>-0.5945454</v>
+      </c>
+      <c r="L21">
+        <v>96.932220000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.66355140000000001</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.27228150000000001</v>
+      </c>
+      <c r="O21" t="s">
+        <v>288</v>
+      </c>
+      <c r="P21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44233.567361111112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F22">
+        <v>602</v>
+      </c>
+      <c r="G22">
+        <v>263</v>
+      </c>
+      <c r="H22">
+        <v>339</v>
+      </c>
+      <c r="I22">
+        <v>17.867519999999999</v>
+      </c>
+      <c r="J22">
+        <v>-0.76019899999999996</v>
+      </c>
+      <c r="K22">
+        <v>-0.7522124</v>
+      </c>
+      <c r="L22">
+        <v>150.7662</v>
+      </c>
+      <c r="M22">
+        <v>0.77581120000000003</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.2504422</v>
+      </c>
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44232.953472222223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23">
+        <v>462</v>
+      </c>
+      <c r="G23">
+        <v>221</v>
+      </c>
+      <c r="H23">
+        <v>241</v>
+      </c>
+      <c r="I23">
+        <v>11.88274</v>
+      </c>
+      <c r="J23">
+        <v>-0.67164179999999996</v>
+      </c>
+      <c r="K23">
+        <v>-0.67910440000000005</v>
+      </c>
+      <c r="L23">
+        <v>103.8745</v>
+      </c>
+      <c r="M23">
+        <v>0.91701250000000001</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.2248366</v>
+      </c>
+      <c r="O23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44234.511805555558</v>
+      </c>
+      <c r="B24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24">
+        <v>866</v>
+      </c>
+      <c r="G24">
+        <v>444</v>
+      </c>
+      <c r="H24">
+        <v>422</v>
+      </c>
+      <c r="I24">
+        <v>12.84046</v>
+      </c>
+      <c r="J24">
+        <v>-0.72839509999999996</v>
+      </c>
+      <c r="K24">
+        <v>-0.73456790000000005</v>
+      </c>
+      <c r="L24">
+        <v>191.00720000000001</v>
+      </c>
+      <c r="M24">
+        <v>1.052133</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.2205626</v>
+      </c>
+      <c r="O24" t="s">
+        <v>307</v>
+      </c>
+      <c r="P24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44232.946527777778</v>
+      </c>
+      <c r="B25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25">
+        <v>648</v>
+      </c>
+      <c r="G25">
+        <v>250</v>
+      </c>
+      <c r="H25">
+        <v>398</v>
+      </c>
+      <c r="I25">
+        <v>11.909090000000001</v>
+      </c>
+      <c r="J25">
+        <v>-0.49447819999999998</v>
+      </c>
+      <c r="K25">
+        <v>-0.56285879999999999</v>
+      </c>
+      <c r="L25">
+        <v>123.8783</v>
+      </c>
+      <c r="M25">
+        <v>0.6281407</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.19117020000000001</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44232.95416666667</v>
+      </c>
+      <c r="B26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26">
+        <v>319</v>
+      </c>
+      <c r="G26">
+        <v>136</v>
+      </c>
+      <c r="H26">
+        <v>183</v>
+      </c>
+      <c r="I26">
+        <v>5.7428569999999999</v>
+      </c>
+      <c r="J26">
+        <v>-0.74545450000000002</v>
+      </c>
+      <c r="K26">
+        <v>-0.76363639999999999</v>
+      </c>
+      <c r="L26">
+        <v>55.67548</v>
+      </c>
+      <c r="M26">
+        <v>0.74316939999999998</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.1745313</v>
+      </c>
+      <c r="O26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44233.568055555559</v>
+      </c>
+      <c r="B27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27">
+        <v>586</v>
+      </c>
+      <c r="G27">
+        <v>289</v>
+      </c>
+      <c r="H27">
+        <v>297</v>
+      </c>
+      <c r="I27">
+        <v>11.12909</v>
+      </c>
+      <c r="J27">
+        <v>-0.6157205</v>
+      </c>
+      <c r="K27">
+        <v>-0.62445410000000001</v>
+      </c>
+      <c r="L27">
+        <v>98.7774</v>
+      </c>
+      <c r="M27">
+        <v>0.97306389999999998</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.16856209999999999</v>
+      </c>
+      <c r="O27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44232.945833333331</v>
+      </c>
+      <c r="B28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>280</v>
+      </c>
+      <c r="F28">
+        <v>814</v>
+      </c>
+      <c r="G28">
+        <v>279</v>
+      </c>
+      <c r="H28">
+        <v>535</v>
+      </c>
+      <c r="I28">
+        <v>12.498010000000001</v>
+      </c>
+      <c r="J28">
+        <v>-0.46162399999999998</v>
+      </c>
+      <c r="K28">
+        <v>-0.50522800000000001</v>
+      </c>
+      <c r="L28">
+        <v>125.6046</v>
+      </c>
+      <c r="M28">
+        <v>0.52149529999999999</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.15430540000000001</v>
+      </c>
+      <c r="O28" t="s">
+        <v>285</v>
+      </c>
+      <c r="P28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44232.973611111112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29">
+        <v>1004</v>
+      </c>
+      <c r="G29">
+        <v>442</v>
+      </c>
+      <c r="H29">
+        <v>562</v>
+      </c>
+      <c r="I29">
+        <v>19.86758</v>
+      </c>
+      <c r="J29">
+        <v>-0.63195880000000004</v>
+      </c>
+      <c r="K29">
+        <v>-0.74226800000000004</v>
+      </c>
+      <c r="L29">
+        <v>128.0881</v>
+      </c>
+      <c r="M29">
+        <v>0.78647690000000003</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.12757779999999999</v>
+      </c>
+      <c r="O29" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44232.945138888892</v>
+      </c>
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30">
+        <v>968</v>
+      </c>
+      <c r="G30">
+        <v>298</v>
+      </c>
+      <c r="H30">
+        <v>670</v>
+      </c>
+      <c r="I30">
+        <v>11.88274</v>
+      </c>
+      <c r="J30">
+        <v>-0.38960280000000003</v>
+      </c>
+      <c r="K30">
+        <v>-0.3786873</v>
+      </c>
+      <c r="L30">
+        <v>117.8801</v>
+      </c>
+      <c r="M30">
+        <v>0.44477610000000001</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.12177689999999999</v>
+      </c>
+      <c r="O30" t="s">
+        <v>284</v>
+      </c>
+      <c r="P30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44232.944444444445</v>
+      </c>
+      <c r="B31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>280</v>
+      </c>
+      <c r="F31">
+        <v>1304</v>
+      </c>
+      <c r="G31">
+        <v>375</v>
+      </c>
+      <c r="H31">
+        <v>929</v>
+      </c>
+      <c r="I31">
+        <v>11.808</v>
+      </c>
+      <c r="J31">
+        <v>-0.35249999999999998</v>
+      </c>
+      <c r="K31">
+        <v>-0.34259269999999997</v>
+      </c>
+      <c r="L31">
+        <v>110.3643</v>
+      </c>
+      <c r="M31">
+        <v>0.40365990000000002</v>
+      </c>
+      <c r="N31" s="1">
+        <v>8.4635189999999999E-2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>281</v>
+      </c>
+      <c r="P31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44232.944444444445</v>
+      </c>
+      <c r="B32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32">
+        <v>1594</v>
+      </c>
+      <c r="G32">
+        <v>476</v>
+      </c>
+      <c r="H32">
+        <v>1118</v>
+      </c>
+      <c r="I32">
+        <v>12.412419999999999</v>
+      </c>
+      <c r="J32">
+        <v>-0.38119550000000002</v>
+      </c>
+      <c r="K32">
+        <v>-0.41528989999999999</v>
+      </c>
+      <c r="L32">
+        <v>114.04810000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.42576029999999998</v>
+      </c>
+      <c r="N32" s="1">
+        <v>7.1548379999999995E-2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>281</v>
+      </c>
+      <c r="P32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q32" xr:uid="{C1B3AFAA-DAB0-4A69-8311-B7856183FA52}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q32">
+      <sortCondition descending="1" ref="N1:N32"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AgentReport.xlsx
+++ b/AgentReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2050236A-2540-4E72-913B-89C1CB85665D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3281560-6BB1-4646-AEC3-F5240214C237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$247</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$P$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="303">
   <si>
     <t>CAC40</t>
   </si>
@@ -870,121 +870,94 @@
     <t>NbLostTrade</t>
   </si>
   <si>
-    <t>MaxGain</t>
-  </si>
-  <si>
-    <t>MaxLoss</t>
-  </si>
-  <si>
-    <t>Max DD</t>
-  </si>
-  <si>
-    <t>Cumul Gain</t>
-  </si>
-  <si>
-    <t>Win Ratio</t>
-  </si>
-  <si>
     <t>Expected Return</t>
   </si>
   <si>
-    <t>ExpectedGain</t>
-  </si>
-  <si>
-    <t>EMA2Lines</t>
-  </si>
-  <si>
-    <t>FastPeriod: 3</t>
-  </si>
-  <si>
-    <t>SlowPeriod: 60</t>
-  </si>
-  <si>
-    <t>SlowPeriod: 90</t>
-  </si>
-  <si>
-    <t>FastPeriod: 6</t>
-  </si>
-  <si>
-    <t>FastPeriod: 9</t>
-  </si>
-  <si>
-    <t>SlowPeriod: 81</t>
-  </si>
-  <si>
-    <t>SlowPeriod: 72</t>
-  </si>
-  <si>
-    <t>FastPeriod: 35</t>
-  </si>
-  <si>
-    <t>SlowPeriod: 89</t>
-  </si>
-  <si>
-    <t>FastPeriod: 39</t>
-  </si>
-  <si>
-    <t>SlowPeriod: 88</t>
-  </si>
-  <si>
-    <t>TrailHLBody</t>
-  </si>
-  <si>
-    <t>Period: 45</t>
-  </si>
-  <si>
-    <t>Period: 49</t>
-  </si>
-  <si>
-    <t>Period: 80</t>
-  </si>
-  <si>
-    <t>Period: 72</t>
-  </si>
-  <si>
-    <t>WinTradeRatio</t>
-  </si>
-  <si>
-    <t>Period: 74</t>
-  </si>
-  <si>
-    <t>Period: 91</t>
-  </si>
-  <si>
-    <t>Period: 100</t>
-  </si>
-  <si>
-    <t>Period: 186</t>
-  </si>
-  <si>
-    <t>Period: 283</t>
-  </si>
-  <si>
-    <t>WinLossRatio</t>
-  </si>
-  <si>
-    <t>Period: 109</t>
-  </si>
-  <si>
-    <t>TrailHIGHEST</t>
-  </si>
-  <si>
-    <t>Trigger: 77</t>
-  </si>
-  <si>
-    <t>Trigger: 61</t>
-  </si>
-  <si>
-    <t>Period: 50</t>
-  </si>
-  <si>
-    <t>Trigger: 90</t>
-  </si>
-  <si>
-    <t>TrailHIGHEST2</t>
-  </si>
-  <si>
-    <t>Trigger: 128</t>
+    <t>AVG Duration</t>
+  </si>
+  <si>
+    <t>Win/Loss Ratio</t>
+  </si>
+  <si>
+    <t>Win Rate</t>
+  </si>
+  <si>
+    <t>Expeced Return/Bar</t>
+  </si>
+  <si>
+    <t>Stop ATR</t>
+  </si>
+  <si>
+    <t>ExpectedGainPerBar</t>
+  </si>
+  <si>
+    <t>17.7184</t>
+  </si>
+  <si>
+    <t>0.3448276</t>
+  </si>
+  <si>
+    <t>0.94182</t>
+  </si>
+  <si>
+    <t>0.01964948</t>
+  </si>
+  <si>
+    <t>Width: 2.95</t>
+  </si>
+  <si>
+    <t>71.44902</t>
+  </si>
+  <si>
+    <t>-0.5854431</t>
+  </si>
+  <si>
+    <t>-0.7136076</t>
+  </si>
+  <si>
+    <t>318.0064</t>
+  </si>
+  <si>
+    <t>0.3097345</t>
+  </si>
+  <si>
+    <t>0.938072</t>
+  </si>
+  <si>
+    <t>Period: 43</t>
+  </si>
+  <si>
+    <t>15.13248</t>
+  </si>
+  <si>
+    <t>-0.3817659</t>
+  </si>
+  <si>
+    <t>-0.7512438</t>
+  </si>
+  <si>
+    <t>430.3894</t>
+  </si>
+  <si>
+    <t>0.3872035</t>
+  </si>
+  <si>
+    <t>0.2373908</t>
+  </si>
+  <si>
+    <t>347.0635</t>
+  </si>
+  <si>
+    <t>-0.94825</t>
+  </si>
+  <si>
+    <t>612.8702</t>
+  </si>
+  <si>
+    <t>0.1833061</t>
+  </si>
+  <si>
+    <t>1.003061</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,6 +1023,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16168,26 +16142,27 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -16216,18 +16191,18 @@
         <v>272</v>
       </c>
       <c r="I1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="J1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" t="s">
-        <v>276</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>277</v>
       </c>
       <c r="N1" t="s">
@@ -16245,1506 +16220,286 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44233.566666666666</v>
+        <v>44451.862500000003</v>
       </c>
       <c r="B2" t="s">
         <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>20.53153</v>
-      </c>
-      <c r="J2">
-        <v>-0.74439840000000002</v>
-      </c>
-      <c r="K2">
-        <v>-0.82019359999999997</v>
-      </c>
-      <c r="L2">
-        <v>90.545490000000001</v>
-      </c>
-      <c r="M2">
-        <v>0.89583330000000005</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.99500540000000004</v>
+        <v>47</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>195</v>
+      </c>
+      <c r="P2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44233.566666666666</v>
+        <v>44451.868055555555</v>
       </c>
       <c r="B3" t="s">
         <v>279</v>
       </c>
       <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>339</v>
+      </c>
+      <c r="G3">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3">
-        <v>101</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
       <c r="H3">
-        <v>51</v>
-      </c>
-      <c r="I3">
-        <v>20.53153</v>
-      </c>
-      <c r="J3">
-        <v>-0.64181820000000001</v>
-      </c>
-      <c r="K3">
-        <v>-0.75249310000000003</v>
-      </c>
-      <c r="L3">
-        <v>92.156559999999999</v>
-      </c>
-      <c r="M3">
-        <v>0.98039220000000005</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.91244119999999995</v>
+        <v>234</v>
+      </c>
+      <c r="I3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" s="7">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>289</v>
       </c>
       <c r="O3" t="s">
-        <v>301</v>
+        <v>290</v>
+      </c>
+      <c r="P3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44234.529166666667</v>
+        <v>44451.868750000001</v>
       </c>
       <c r="B4" t="s">
         <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>144</v>
+        <v>1813</v>
       </c>
       <c r="G4">
-        <v>88</v>
+        <v>702</v>
       </c>
       <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4">
-        <v>14.126580000000001</v>
-      </c>
-      <c r="J4">
-        <v>-0.63324999999999998</v>
-      </c>
-      <c r="K4">
-        <v>-0.66225000000000001</v>
-      </c>
-      <c r="L4">
-        <v>118.9691</v>
-      </c>
-      <c r="M4">
-        <v>1.571429</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.82617399999999996</v>
+        <v>1111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M4" s="7">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>296</v>
       </c>
       <c r="O4" t="s">
-        <v>311</v>
+        <v>297</v>
+      </c>
+      <c r="P4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44233.564583333333</v>
+        <v>44451.869444444441</v>
       </c>
       <c r="B5" t="s">
         <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="F5">
-        <v>158</v>
+        <v>611</v>
       </c>
       <c r="G5">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="H5">
-        <v>72</v>
-      </c>
-      <c r="I5">
-        <v>12.12323</v>
-      </c>
-      <c r="J5">
-        <v>-0.51726320000000003</v>
-      </c>
-      <c r="K5">
-        <v>-0.71242110000000003</v>
-      </c>
-      <c r="L5">
-        <v>105.03100000000001</v>
-      </c>
-      <c r="M5">
-        <v>1.1944440000000001</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.66475300000000004</v>
+        <v>499</v>
+      </c>
+      <c r="I5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="M5" s="7">
+        <v>91</v>
+      </c>
+      <c r="N5" t="s">
+        <v>301</v>
       </c>
       <c r="O5" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>44233.567361111112</v>
-      </c>
-      <c r="B6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6">
-        <v>148</v>
-      </c>
-      <c r="G6">
-        <v>81</v>
-      </c>
-      <c r="H6">
-        <v>67</v>
-      </c>
-      <c r="I6">
-        <v>10.76812</v>
-      </c>
-      <c r="J6">
-        <v>-0.51726320000000003</v>
-      </c>
-      <c r="K6">
-        <v>-0.71242110000000003</v>
-      </c>
-      <c r="L6">
-        <v>95.750209999999996</v>
-      </c>
-      <c r="M6">
-        <v>1.208955</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.64696089999999995</v>
-      </c>
-      <c r="O6" t="s">
-        <v>304</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>44232.974305555559</v>
-      </c>
-      <c r="B7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7">
-        <v>217</v>
-      </c>
-      <c r="G7">
-        <v>115</v>
-      </c>
-      <c r="H7">
-        <v>102</v>
-      </c>
-      <c r="I7">
-        <v>10.56701</v>
-      </c>
-      <c r="J7">
-        <v>-0.67600819999999995</v>
-      </c>
-      <c r="K7">
-        <v>-0.71242110000000003</v>
-      </c>
-      <c r="L7">
-        <v>131.08189999999999</v>
-      </c>
-      <c r="M7">
-        <v>1.127451</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.60406389999999999</v>
-      </c>
-      <c r="O7" t="s">
-        <v>296</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>44232.974999999999</v>
-      </c>
-      <c r="B8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8">
-        <v>214</v>
-      </c>
-      <c r="G8">
-        <v>116</v>
-      </c>
-      <c r="H8">
-        <v>98</v>
-      </c>
-      <c r="I8">
-        <v>10.56701</v>
-      </c>
-      <c r="J8">
-        <v>-0.67600819999999995</v>
-      </c>
-      <c r="K8">
-        <v>-0.71242110000000003</v>
-      </c>
-      <c r="L8">
-        <v>126.98609999999999</v>
-      </c>
-      <c r="M8">
-        <v>1.1836739999999999</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.59339280000000005</v>
-      </c>
-      <c r="O8" t="s">
-        <v>298</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>44234.51458333333</v>
-      </c>
-      <c r="B9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F9">
-        <v>366</v>
-      </c>
-      <c r="G9">
-        <v>194</v>
-      </c>
-      <c r="H9">
-        <v>172</v>
-      </c>
-      <c r="I9">
-        <v>10.376580000000001</v>
-      </c>
-      <c r="J9">
-        <v>-0.92982849999999995</v>
-      </c>
-      <c r="K9">
-        <v>-0.92248929999999996</v>
-      </c>
-      <c r="L9">
-        <v>190.63399999999999</v>
-      </c>
-      <c r="M9">
-        <v>1.127907</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.52085789999999998</v>
-      </c>
-      <c r="O9" t="s">
-        <v>309</v>
-      </c>
-      <c r="P9" t="s">
-        <v>38</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44232.95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>280</v>
-      </c>
-      <c r="F10">
-        <v>265</v>
-      </c>
-      <c r="G10">
-        <v>115</v>
-      </c>
-      <c r="H10">
-        <v>150</v>
-      </c>
-      <c r="I10">
-        <v>17.599219999999999</v>
-      </c>
-      <c r="J10">
-        <v>-0.5397149</v>
-      </c>
-      <c r="K10">
-        <v>-0.74562379999999995</v>
-      </c>
-      <c r="L10">
-        <v>133.08170000000001</v>
-      </c>
-      <c r="M10">
-        <v>0.76666670000000003</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.50219510000000001</v>
-      </c>
-      <c r="O10" t="s">
-        <v>290</v>
-      </c>
-      <c r="P10" t="s">
-        <v>291</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44232.95416666667</v>
-      </c>
-      <c r="B11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11">
-        <v>312</v>
-      </c>
-      <c r="G11">
-        <v>157</v>
-      </c>
-      <c r="H11">
-        <v>155</v>
-      </c>
-      <c r="I11">
-        <v>12.773949999999999</v>
-      </c>
-      <c r="J11">
-        <v>-0.62055329999999997</v>
-      </c>
-      <c r="K11">
-        <v>-0.71242110000000003</v>
-      </c>
-      <c r="L11">
-        <v>149.22579999999999</v>
-      </c>
-      <c r="M11">
-        <v>1.0129030000000001</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.47828789999999999</v>
-      </c>
-      <c r="O11" t="s">
-        <v>294</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44232.948611111111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F12">
-        <v>293</v>
-      </c>
-      <c r="G12">
-        <v>121</v>
-      </c>
-      <c r="H12">
-        <v>172</v>
-      </c>
-      <c r="I12">
-        <v>12.6965</v>
-      </c>
-      <c r="J12">
-        <v>-0.52927199999999996</v>
-      </c>
-      <c r="K12">
-        <v>-0.74562379999999995</v>
-      </c>
-      <c r="L12">
-        <v>128.08320000000001</v>
-      </c>
-      <c r="M12">
-        <v>0.70348829999999996</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.43714389999999997</v>
-      </c>
-      <c r="O12" t="s">
-        <v>288</v>
-      </c>
-      <c r="P12" t="s">
-        <v>289</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44232.953472222223</v>
-      </c>
-      <c r="B13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13">
-        <v>344</v>
-      </c>
-      <c r="G13">
-        <v>175</v>
-      </c>
-      <c r="H13">
-        <v>169</v>
-      </c>
-      <c r="I13">
-        <v>13.68872</v>
-      </c>
-      <c r="J13">
-        <v>-0.62371120000000002</v>
-      </c>
-      <c r="K13">
-        <v>-0.71242110000000003</v>
-      </c>
-      <c r="L13">
-        <v>149.0352</v>
-      </c>
-      <c r="M13">
-        <v>1.0355030000000001</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.43324200000000002</v>
-      </c>
-      <c r="O13" t="s">
-        <v>293</v>
-      </c>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44232.95416666667</v>
-      </c>
-      <c r="B14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14">
-        <v>344</v>
-      </c>
-      <c r="G14">
-        <v>175</v>
-      </c>
-      <c r="H14">
-        <v>169</v>
-      </c>
-      <c r="I14">
-        <v>13.68872</v>
-      </c>
-      <c r="J14">
-        <v>-0.62371120000000002</v>
-      </c>
-      <c r="K14">
-        <v>-0.71242110000000003</v>
-      </c>
-      <c r="L14">
-        <v>149.0352</v>
-      </c>
-      <c r="M14">
-        <v>1.0355030000000001</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.43324200000000002</v>
-      </c>
-      <c r="O14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44234.513194444444</v>
-      </c>
-      <c r="B15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>305</v>
-      </c>
-      <c r="F15">
-        <v>520</v>
-      </c>
-      <c r="G15">
-        <v>267</v>
-      </c>
-      <c r="H15">
-        <v>253</v>
-      </c>
-      <c r="I15">
-        <v>10.41061</v>
-      </c>
-      <c r="J15">
-        <v>-0.70719240000000005</v>
-      </c>
-      <c r="K15">
-        <v>-0.74110790000000004</v>
-      </c>
-      <c r="L15">
-        <v>213.99930000000001</v>
-      </c>
-      <c r="M15">
-        <v>1.0553360000000001</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.41153709999999999</v>
-      </c>
-      <c r="O15" t="s">
-        <v>306</v>
-      </c>
-      <c r="P15" t="s">
-        <v>308</v>
-      </c>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44234.502083333333</v>
-      </c>
-      <c r="B16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>305</v>
-      </c>
-      <c r="F16">
-        <v>397</v>
-      </c>
-      <c r="G16">
-        <v>194</v>
-      </c>
-      <c r="H16">
-        <v>203</v>
-      </c>
-      <c r="I16">
-        <v>31.085560000000001</v>
-      </c>
-      <c r="J16">
-        <v>-0.63444440000000002</v>
-      </c>
-      <c r="K16">
-        <v>-0.6875</v>
-      </c>
-      <c r="L16">
-        <v>144.5206</v>
-      </c>
-      <c r="M16">
-        <v>0.95566510000000005</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.36403170000000001</v>
-      </c>
-      <c r="O16" t="s">
-        <v>306</v>
-      </c>
-      <c r="P16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>44233.564583333333</v>
-      </c>
-      <c r="B17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17">
-        <v>219</v>
-      </c>
-      <c r="G17">
-        <v>97</v>
-      </c>
-      <c r="H17">
-        <v>122</v>
-      </c>
-      <c r="I17">
-        <v>9.2213419999999999</v>
-      </c>
-      <c r="J17">
-        <v>-0.53203789999999995</v>
-      </c>
-      <c r="K17">
-        <v>-0.59007350000000003</v>
-      </c>
-      <c r="L17">
-        <v>74.976470000000006</v>
-      </c>
-      <c r="M17">
-        <v>0.79508199999999996</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0.3423583</v>
-      </c>
-      <c r="O17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44233.564583333333</v>
-      </c>
-      <c r="B18" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18">
-        <v>249</v>
-      </c>
-      <c r="G18">
-        <v>112</v>
-      </c>
-      <c r="H18">
-        <v>137</v>
-      </c>
-      <c r="I18">
-        <v>9.9864599999999992</v>
-      </c>
-      <c r="J18">
-        <v>-0.53203789999999995</v>
-      </c>
-      <c r="K18">
-        <v>-0.59007350000000003</v>
-      </c>
-      <c r="L18">
-        <v>82.507840000000002</v>
-      </c>
-      <c r="M18">
-        <v>0.81751819999999997</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0.33135680000000001</v>
-      </c>
-      <c r="O18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44234.512499999997</v>
-      </c>
-      <c r="B19" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19">
-        <v>645</v>
-      </c>
-      <c r="G19">
-        <v>336</v>
-      </c>
-      <c r="H19">
-        <v>309</v>
-      </c>
-      <c r="I19">
-        <v>10.41061</v>
-      </c>
-      <c r="J19">
-        <v>-0.46730159999999998</v>
-      </c>
-      <c r="K19">
-        <v>-0.50380950000000002</v>
-      </c>
-      <c r="L19">
-        <v>194.4922</v>
-      </c>
-      <c r="M19">
-        <v>1.0873790000000001</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0.30153819999999998</v>
-      </c>
-      <c r="O19" t="s">
-        <v>306</v>
-      </c>
-      <c r="P19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44233.56527777778</v>
-      </c>
-      <c r="B20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20">
-        <v>504</v>
-      </c>
-      <c r="G20">
-        <v>232</v>
-      </c>
-      <c r="H20">
-        <v>272</v>
-      </c>
-      <c r="I20">
-        <v>17.525639999999999</v>
-      </c>
-      <c r="J20">
-        <v>-0.76019899999999996</v>
-      </c>
-      <c r="K20">
-        <v>-0.7522124</v>
-      </c>
-      <c r="L20">
-        <v>149.65039999999999</v>
-      </c>
-      <c r="M20">
-        <v>0.85294119999999995</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.2969253</v>
-      </c>
-      <c r="O20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>44232.947916666664</v>
-      </c>
-      <c r="B21" t="s">
-        <v>279</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21">
-        <v>356</v>
-      </c>
-      <c r="G21">
-        <v>142</v>
-      </c>
-      <c r="H21">
-        <v>214</v>
-      </c>
-      <c r="I21">
-        <v>14.314780000000001</v>
-      </c>
-      <c r="J21">
-        <v>-0.53714289999999998</v>
-      </c>
-      <c r="K21">
-        <v>-0.5945454</v>
-      </c>
-      <c r="L21">
-        <v>96.932220000000001</v>
-      </c>
-      <c r="M21">
-        <v>0.66355140000000001</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.27228150000000001</v>
-      </c>
-      <c r="O21" t="s">
-        <v>288</v>
-      </c>
-      <c r="P21" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44233.567361111112</v>
-      </c>
-      <c r="B22" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22">
-        <v>602</v>
-      </c>
-      <c r="G22">
-        <v>263</v>
-      </c>
-      <c r="H22">
-        <v>339</v>
-      </c>
-      <c r="I22">
-        <v>17.867519999999999</v>
-      </c>
-      <c r="J22">
-        <v>-0.76019899999999996</v>
-      </c>
-      <c r="K22">
-        <v>-0.7522124</v>
-      </c>
-      <c r="L22">
-        <v>150.7662</v>
-      </c>
-      <c r="M22">
-        <v>0.77581120000000003</v>
-      </c>
-      <c r="N22" s="1">
-        <v>0.2504422</v>
-      </c>
-      <c r="O22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>44232.953472222223</v>
-      </c>
-      <c r="B23" t="s">
-        <v>279</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="F23">
-        <v>462</v>
-      </c>
-      <c r="G23">
-        <v>221</v>
-      </c>
-      <c r="H23">
-        <v>241</v>
-      </c>
-      <c r="I23">
-        <v>11.88274</v>
-      </c>
-      <c r="J23">
-        <v>-0.67164179999999996</v>
-      </c>
-      <c r="K23">
-        <v>-0.67910440000000005</v>
-      </c>
-      <c r="L23">
-        <v>103.8745</v>
-      </c>
-      <c r="M23">
-        <v>0.91701250000000001</v>
-      </c>
-      <c r="N23" s="1">
-        <v>0.2248366</v>
-      </c>
-      <c r="O23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44234.511805555558</v>
-      </c>
-      <c r="B24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>305</v>
-      </c>
-      <c r="F24">
-        <v>866</v>
-      </c>
-      <c r="G24">
-        <v>444</v>
-      </c>
-      <c r="H24">
-        <v>422</v>
-      </c>
-      <c r="I24">
-        <v>12.84046</v>
-      </c>
-      <c r="J24">
-        <v>-0.72839509999999996</v>
-      </c>
-      <c r="K24">
-        <v>-0.73456790000000005</v>
-      </c>
-      <c r="L24">
-        <v>191.00720000000001</v>
-      </c>
-      <c r="M24">
-        <v>1.052133</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.2205626</v>
-      </c>
-      <c r="O24" t="s">
-        <v>307</v>
-      </c>
-      <c r="P24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44232.946527777778</v>
-      </c>
-      <c r="B25" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>280</v>
-      </c>
-      <c r="F25">
-        <v>648</v>
-      </c>
-      <c r="G25">
-        <v>250</v>
-      </c>
-      <c r="H25">
-        <v>398</v>
-      </c>
-      <c r="I25">
-        <v>11.909090000000001</v>
-      </c>
-      <c r="J25">
-        <v>-0.49447819999999998</v>
-      </c>
-      <c r="K25">
-        <v>-0.56285879999999999</v>
-      </c>
-      <c r="L25">
-        <v>123.8783</v>
-      </c>
-      <c r="M25">
-        <v>0.6281407</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.19117020000000001</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>44232.95416666667</v>
-      </c>
-      <c r="B26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>292</v>
-      </c>
-      <c r="F26">
-        <v>319</v>
-      </c>
-      <c r="G26">
-        <v>136</v>
-      </c>
-      <c r="H26">
-        <v>183</v>
-      </c>
-      <c r="I26">
-        <v>5.7428569999999999</v>
-      </c>
-      <c r="J26">
-        <v>-0.74545450000000002</v>
-      </c>
-      <c r="K26">
-        <v>-0.76363639999999999</v>
-      </c>
-      <c r="L26">
-        <v>55.67548</v>
-      </c>
-      <c r="M26">
-        <v>0.74316939999999998</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.1745313</v>
-      </c>
-      <c r="O26" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>44233.568055555559</v>
-      </c>
-      <c r="B27" t="s">
-        <v>297</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27">
-        <v>586</v>
-      </c>
-      <c r="G27">
-        <v>289</v>
-      </c>
-      <c r="H27">
-        <v>297</v>
-      </c>
-      <c r="I27">
-        <v>11.12909</v>
-      </c>
-      <c r="J27">
-        <v>-0.6157205</v>
-      </c>
-      <c r="K27">
-        <v>-0.62445410000000001</v>
-      </c>
-      <c r="L27">
-        <v>98.7774</v>
-      </c>
-      <c r="M27">
-        <v>0.97306389999999998</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.16856209999999999</v>
-      </c>
-      <c r="O27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>44232.945833333331</v>
-      </c>
-      <c r="B28" t="s">
-        <v>279</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>280</v>
-      </c>
-      <c r="F28">
-        <v>814</v>
-      </c>
-      <c r="G28">
-        <v>279</v>
-      </c>
-      <c r="H28">
-        <v>535</v>
-      </c>
-      <c r="I28">
-        <v>12.498010000000001</v>
-      </c>
-      <c r="J28">
-        <v>-0.46162399999999998</v>
-      </c>
-      <c r="K28">
-        <v>-0.50522800000000001</v>
-      </c>
-      <c r="L28">
-        <v>125.6046</v>
-      </c>
-      <c r="M28">
-        <v>0.52149529999999999</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.15430540000000001</v>
-      </c>
-      <c r="O28" t="s">
-        <v>285</v>
-      </c>
-      <c r="P28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44232.973611111112</v>
-      </c>
-      <c r="B29" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29">
-        <v>1004</v>
-      </c>
-      <c r="G29">
-        <v>442</v>
-      </c>
-      <c r="H29">
-        <v>562</v>
-      </c>
-      <c r="I29">
-        <v>19.86758</v>
-      </c>
-      <c r="J29">
-        <v>-0.63195880000000004</v>
-      </c>
-      <c r="K29">
-        <v>-0.74226800000000004</v>
-      </c>
-      <c r="L29">
-        <v>128.0881</v>
-      </c>
-      <c r="M29">
-        <v>0.78647690000000003</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.12757779999999999</v>
-      </c>
-      <c r="O29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>44232.945138888892</v>
-      </c>
-      <c r="B30" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>280</v>
-      </c>
-      <c r="F30">
-        <v>968</v>
-      </c>
-      <c r="G30">
-        <v>298</v>
-      </c>
-      <c r="H30">
-        <v>670</v>
-      </c>
-      <c r="I30">
-        <v>11.88274</v>
-      </c>
-      <c r="J30">
-        <v>-0.38960280000000003</v>
-      </c>
-      <c r="K30">
-        <v>-0.3786873</v>
-      </c>
-      <c r="L30">
-        <v>117.8801</v>
-      </c>
-      <c r="M30">
-        <v>0.44477610000000001</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.12177689999999999</v>
-      </c>
-      <c r="O30" t="s">
-        <v>284</v>
-      </c>
-      <c r="P30" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>44232.944444444445</v>
-      </c>
-      <c r="B31" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>280</v>
-      </c>
-      <c r="F31">
-        <v>1304</v>
-      </c>
-      <c r="G31">
-        <v>375</v>
-      </c>
-      <c r="H31">
-        <v>929</v>
-      </c>
-      <c r="I31">
-        <v>11.808</v>
-      </c>
-      <c r="J31">
-        <v>-0.35249999999999998</v>
-      </c>
-      <c r="K31">
-        <v>-0.34259269999999997</v>
-      </c>
-      <c r="L31">
-        <v>110.3643</v>
-      </c>
-      <c r="M31">
-        <v>0.40365990000000002</v>
-      </c>
-      <c r="N31" s="1">
-        <v>8.4635189999999999E-2</v>
-      </c>
-      <c r="O31" t="s">
-        <v>281</v>
-      </c>
-      <c r="P31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>44232.944444444445</v>
-      </c>
-      <c r="B32" t="s">
-        <v>279</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32">
-        <v>1594</v>
-      </c>
-      <c r="G32">
-        <v>476</v>
-      </c>
-      <c r="H32">
-        <v>1118</v>
-      </c>
-      <c r="I32">
-        <v>12.412419999999999</v>
-      </c>
-      <c r="J32">
-        <v>-0.38119550000000002</v>
-      </c>
-      <c r="K32">
-        <v>-0.41528989999999999</v>
-      </c>
-      <c r="L32">
-        <v>114.04810000000001</v>
-      </c>
-      <c r="M32">
-        <v>0.42576029999999998</v>
-      </c>
-      <c r="N32" s="1">
-        <v>7.1548379999999995E-2</v>
-      </c>
-      <c r="O32" t="s">
-        <v>281</v>
-      </c>
-      <c r="P32" t="s">
-        <v>282</v>
-      </c>
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q32" xr:uid="{C1B3AFAA-DAB0-4A69-8311-B7856183FA52}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q32">
-      <sortCondition descending="1" ref="N1:N32"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AgentReport.xlsx
+++ b/AgentReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r395930\AppData\Roaming\UltimateChartistRoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3281560-6BB1-4646-AEC3-F5240214C237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB3BDE2-04A6-4D9F-B23D-860659DBF8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$247</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$P$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$R$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="306">
   <si>
     <t>CAC40</t>
   </si>
@@ -891,73 +891,82 @@
     <t>ExpectedGainPerBar</t>
   </si>
   <si>
-    <t>17.7184</t>
-  </si>
-  <si>
-    <t>0.3448276</t>
-  </si>
-  <si>
-    <t>0.94182</t>
-  </si>
-  <si>
-    <t>0.01964948</t>
-  </si>
-  <si>
     <t>Width: 2.95</t>
   </si>
   <si>
-    <t>71.44902</t>
-  </si>
-  <si>
-    <t>-0.5854431</t>
-  </si>
-  <si>
-    <t>-0.7136076</t>
-  </si>
-  <si>
-    <t>318.0064</t>
-  </si>
-  <si>
-    <t>0.3097345</t>
-  </si>
-  <si>
-    <t>0.938072</t>
-  </si>
-  <si>
-    <t>Period: 43</t>
-  </si>
-  <si>
-    <t>15.13248</t>
-  </si>
-  <si>
-    <t>-0.3817659</t>
-  </si>
-  <si>
-    <t>-0.7512438</t>
-  </si>
-  <si>
-    <t>430.3894</t>
-  </si>
-  <si>
-    <t>0.3872035</t>
-  </si>
-  <si>
-    <t>0.2373908</t>
-  </si>
-  <si>
-    <t>347.0635</t>
-  </si>
-  <si>
-    <t>-0.94825</t>
-  </si>
-  <si>
-    <t>612.8702</t>
-  </si>
-  <si>
-    <t>0.1833061</t>
-  </si>
-  <si>
-    <t>1.003061</t>
+    <t>Width: 3.8</t>
+  </si>
+  <si>
+    <t>Width: 4</t>
+  </si>
+  <si>
+    <t>Period: 50</t>
+  </si>
+  <si>
+    <t>Width: 2.799999</t>
+  </si>
+  <si>
+    <t>ATRStop2</t>
+  </si>
+  <si>
+    <t>UpWidth: 3.850001</t>
+  </si>
+  <si>
+    <t>UpWidth: 3.899999</t>
+  </si>
+  <si>
+    <t>DownWidth: 0.5</t>
+  </si>
+  <si>
+    <t>Period: 100</t>
+  </si>
+  <si>
+    <t>Width: 3</t>
+  </si>
+  <si>
+    <t>Period: 99</t>
+  </si>
+  <si>
+    <t>Width: 3.5</t>
+  </si>
+  <si>
+    <t>UpWidth: 4.5</t>
+  </si>
+  <si>
+    <t>DownWidth: 2</t>
+  </si>
+  <si>
+    <t>UpWidth: 3.5</t>
+  </si>
+  <si>
+    <t>DownWidth: 4.5</t>
+  </si>
+  <si>
+    <t>TrailHIGHESTATR</t>
+  </si>
+  <si>
+    <t>Trigger: 20</t>
+  </si>
+  <si>
+    <t>TrailATR: 9</t>
+  </si>
+  <si>
+    <t>Trigger: 21</t>
+  </si>
+  <si>
+    <t>TrailATR: 10</t>
+  </si>
+  <si>
+    <t>Trigger: 25</t>
+  </si>
+  <si>
+    <t>Trigger: 50</t>
+  </si>
+  <si>
+    <t>TrailATR: 7</t>
+  </si>
+  <si>
+    <t>Trigger: 30</t>
   </si>
 </sst>
 </file>
@@ -16139,10 +16148,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D621A45-9B8E-401F-BA56-458088F2CB39}">
-  <dimension ref="A1:Q32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16151,7 +16161,7 @@
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
@@ -16161,7 +16171,7 @@
     <col min="13" max="13" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16218,7 +16228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44451.862500000003</v>
       </c>
@@ -16246,17 +16256,17 @@
       <c r="I2">
         <v>47</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>283</v>
+      <c r="J2" s="9">
+        <v>17.718399999999999</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.34482760000000001</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.94181999999999999</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.964948E-2</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -16265,241 +16275,1116 @@
         <v>195</v>
       </c>
       <c r="P2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44451.868055555555</v>
+        <v>44452.578472222223</v>
       </c>
       <c r="B3" t="s">
         <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>297</v>
       </c>
       <c r="F3">
-        <v>339</v>
+        <v>1646</v>
       </c>
       <c r="G3">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="H3">
-        <v>234</v>
-      </c>
-      <c r="I3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>288</v>
+        <v>1410</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>48.68</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.1434</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.1125</v>
       </c>
       <c r="M3" s="7">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>289</v>
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="N3">
+        <v>0.1</v>
       </c>
       <c r="O3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="P3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44451.868750000001</v>
+        <v>44452.48541666667</v>
       </c>
       <c r="B4" t="s">
         <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="F4">
-        <v>1813</v>
+        <v>370</v>
       </c>
       <c r="G4">
-        <v>702</v>
+        <v>144</v>
       </c>
       <c r="H4">
-        <v>1111</v>
-      </c>
-      <c r="I4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>226</v>
+      </c>
+      <c r="I4">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.38919999999999999</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.27789999999999998</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>296</v>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>286</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44451.869444444441</v>
+        <v>44452.487500000003</v>
       </c>
       <c r="B5" t="s">
         <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="F5">
-        <v>611</v>
+        <v>367</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H5">
-        <v>499</v>
-      </c>
-      <c r="I5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="M5" s="7">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>283</v>
+      </c>
+      <c r="P5" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44452.488194444442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6">
+        <v>367</v>
+      </c>
+      <c r="G6">
+        <v>146</v>
+      </c>
+      <c r="H6">
+        <v>221</v>
+      </c>
+      <c r="I6">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="M6" s="7">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>283</v>
+      </c>
+      <c r="P6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>44452.484027777777</v>
+      </c>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>336</v>
+      </c>
+      <c r="G7">
+        <v>108</v>
+      </c>
+      <c r="H7">
+        <v>228</v>
+      </c>
+      <c r="I7">
+        <v>53</v>
+      </c>
+      <c r="J7">
+        <v>12.3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="M7" s="7">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44452.488194444442</v>
+      </c>
+      <c r="B8" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8">
+        <v>410</v>
+      </c>
+      <c r="G8">
+        <v>219</v>
+      </c>
+      <c r="H8">
+        <v>191</v>
+      </c>
+      <c r="I8">
+        <v>51</v>
+      </c>
+      <c r="J8">
+        <v>5.09</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.2989</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>44452.584027777775</v>
+      </c>
+      <c r="B9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9">
+        <v>772</v>
+      </c>
+      <c r="G9">
+        <v>178</v>
+      </c>
+      <c r="H9">
+        <v>594</v>
+      </c>
+      <c r="I9">
+        <v>59</v>
+      </c>
+      <c r="J9">
+        <v>20.32</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.2306</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="N9">
+        <v>1.5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44452.584027777775</v>
+      </c>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10">
+        <v>772</v>
+      </c>
+      <c r="G10">
+        <v>178</v>
+      </c>
+      <c r="H10">
+        <v>594</v>
+      </c>
+      <c r="I10">
+        <v>59</v>
+      </c>
+      <c r="J10">
+        <v>20.32</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.2306</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>302</v>
+      </c>
+      <c r="P10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44452.477777777778</v>
+      </c>
+      <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="H11">
+        <v>67</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11" s="9">
+        <v>15.12</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44452.574305555558</v>
+      </c>
+      <c r="B12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12">
+        <v>663</v>
+      </c>
+      <c r="G12">
+        <v>199</v>
+      </c>
+      <c r="H12">
+        <v>464</v>
+      </c>
+      <c r="I12">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <v>13.65</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="M12" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
         <v>298</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="P12" t="s">
         <v>299</v>
       </c>
-      <c r="K5" s="7" t="s">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>44452.479861111111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>319</v>
+      </c>
+      <c r="G13">
+        <v>91</v>
+      </c>
+      <c r="H13">
+        <v>228</v>
+      </c>
+      <c r="I13">
+        <v>52</v>
+      </c>
+      <c r="J13" s="9">
+        <v>11.05</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.2853</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4.3E-3</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44452.481249999997</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>319</v>
+      </c>
+      <c r="G14">
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <v>228</v>
+      </c>
+      <c r="I14">
+        <v>52</v>
+      </c>
+      <c r="J14" s="9">
+        <v>11.05</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.2853</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4.3E-3</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>44452.585416666669</v>
+      </c>
+      <c r="B15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15">
+        <v>873</v>
+      </c>
+      <c r="G15">
+        <v>227</v>
+      </c>
+      <c r="H15">
+        <v>646</v>
+      </c>
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>11.21</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.1784</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="N15">
+        <v>1.5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>302</v>
+      </c>
+      <c r="P15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44452.586111111108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F16">
+        <v>722</v>
+      </c>
+      <c r="G16">
+        <v>226</v>
+      </c>
+      <c r="H16">
+        <v>496</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.2104</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>305</v>
+      </c>
+      <c r="P16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>44452.584722222222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F17">
+        <v>603</v>
+      </c>
+      <c r="G17">
+        <v>145</v>
+      </c>
+      <c r="H17">
+        <v>458</v>
+      </c>
+      <c r="I17">
+        <v>57</v>
+      </c>
+      <c r="J17">
+        <v>13.38</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.1794</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>303</v>
+      </c>
+      <c r="P17" t="s">
         <v>299</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M5" s="7">
-        <v>91</v>
-      </c>
-      <c r="N5" t="s">
-        <v>301</v>
-      </c>
-      <c r="O5" t="s">
-        <v>302</v>
-      </c>
-      <c r="P5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44452.567361111112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>1460</v>
+      </c>
+      <c r="G18">
+        <v>269</v>
+      </c>
+      <c r="H18">
+        <v>1191</v>
+      </c>
+      <c r="I18">
+        <v>66</v>
+      </c>
+      <c r="J18">
+        <v>11.33</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.1842</v>
+      </c>
+      <c r="L18" s="7">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="M18" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N18">
+        <v>1.5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>291</v>
+      </c>
+      <c r="P18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>44452.570138888892</v>
+      </c>
+      <c r="B19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19">
+        <v>1279</v>
+      </c>
+      <c r="G19">
+        <v>219</v>
+      </c>
+      <c r="H19">
+        <v>1060</v>
+      </c>
+      <c r="I19">
+        <v>74</v>
+      </c>
+      <c r="J19">
+        <v>13.27</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>289</v>
+      </c>
+      <c r="P19" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44452.571527777778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20">
+        <v>1279</v>
+      </c>
+      <c r="G20">
+        <v>283</v>
+      </c>
+      <c r="H20">
+        <v>996</v>
+      </c>
+      <c r="I20">
+        <v>94</v>
+      </c>
+      <c r="J20">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.2213</v>
+      </c>
+      <c r="L20" s="7">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="M20" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>289</v>
+      </c>
+      <c r="P20" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>44452.561805555553</v>
+      </c>
+      <c r="B21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>1429</v>
+      </c>
+      <c r="G21">
+        <v>621</v>
+      </c>
+      <c r="H21">
+        <v>808</v>
+      </c>
+      <c r="I21">
+        <v>165</v>
+      </c>
+      <c r="J21">
+        <v>2.93</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="L21" s="7">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>248</v>
+      </c>
+      <c r="P21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44452.56527777778</v>
+      </c>
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>1656</v>
+      </c>
+      <c r="G22">
+        <v>687</v>
+      </c>
+      <c r="H22">
+        <v>969</v>
+      </c>
+      <c r="I22">
+        <v>145</v>
+      </c>
+      <c r="J22">
+        <v>3.19</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.41489999999999999</v>
+      </c>
+      <c r="L22" s="7">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>289</v>
+      </c>
+      <c r="P22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>44452.568749999999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23">
+        <v>1580</v>
+      </c>
+      <c r="G23">
+        <v>674</v>
+      </c>
+      <c r="H23">
+        <v>906</v>
+      </c>
+      <c r="I23">
+        <v>120</v>
+      </c>
+      <c r="J23">
+        <v>2.98</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="L23" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="M23" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>289</v>
+      </c>
+      <c r="P23" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:R23" xr:uid="{F142F9EB-8C48-4879-8B8E-705B72EBC6BD}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Weekly"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R23">
+      <sortCondition descending="1" ref="M1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AgentReport.xlsx
+++ b/AgentReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r395930\AppData\Roaming\UltimateChartistRoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB3BDE2-04A6-4D9F-B23D-860659DBF8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868F0D2-0711-4981-81EB-07C9808F4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$247</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$R$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$R$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="405">
   <si>
     <t>CAC40</t>
   </si>
@@ -894,30 +894,15 @@
     <t>Width: 2.95</t>
   </si>
   <si>
-    <t>Width: 3.8</t>
-  </si>
-  <si>
     <t>Width: 4</t>
   </si>
   <si>
     <t>Period: 50</t>
   </si>
   <si>
-    <t>Width: 2.799999</t>
-  </si>
-  <si>
     <t>ATRStop2</t>
   </si>
   <si>
-    <t>UpWidth: 3.850001</t>
-  </si>
-  <si>
-    <t>UpWidth: 3.899999</t>
-  </si>
-  <si>
-    <t>DownWidth: 0.5</t>
-  </si>
-  <si>
     <t>Period: 100</t>
   </si>
   <si>
@@ -967,6 +952,318 @@
   </si>
   <si>
     <t>Trigger: 30</t>
+  </si>
+  <si>
+    <t>13.27</t>
+  </si>
+  <si>
+    <t>17.12%</t>
+  </si>
+  <si>
+    <t>5.53%</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>9.47</t>
+  </si>
+  <si>
+    <t>22.13%</t>
+  </si>
+  <si>
+    <t>6.52%</t>
+  </si>
+  <si>
+    <t>TrailATR: 1</t>
+  </si>
+  <si>
+    <t>31.30%</t>
+  </si>
+  <si>
+    <t>EMABODY</t>
+  </si>
+  <si>
+    <t>Period: 200</t>
+  </si>
+  <si>
+    <t>EMA2Lines</t>
+  </si>
+  <si>
+    <t>FastPeriod: 3</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 53</t>
+  </si>
+  <si>
+    <t>FastPeriod: 6</t>
+  </si>
+  <si>
+    <t>SlowPeriod: 55</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>Level: 90</t>
+  </si>
+  <si>
+    <t>BuyLevel: 80</t>
+  </si>
+  <si>
+    <t>SellLevel: 26</t>
+  </si>
+  <si>
+    <t>EURO_A_B_C</t>
+  </si>
+  <si>
+    <t>SellLevel: 20</t>
+  </si>
+  <si>
+    <t>0.32%</t>
+  </si>
+  <si>
+    <t>BuyLevel: 70</t>
+  </si>
+  <si>
+    <t>SellLevel: 34</t>
+  </si>
+  <si>
+    <t>BuyLevel: 75</t>
+  </si>
+  <si>
+    <t>SellLevel: 30</t>
+  </si>
+  <si>
+    <t>SellLevel: 25</t>
+  </si>
+  <si>
+    <t>BuyLevel: 25</t>
+  </si>
+  <si>
+    <t>SellLevel: 35</t>
+  </si>
+  <si>
+    <t>RSIInv</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>EMAMonthly</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>40.05%</t>
+  </si>
+  <si>
+    <t>3.27%</t>
+  </si>
+  <si>
+    <t>0.03%</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>38.20%</t>
+  </si>
+  <si>
+    <t>5.54%</t>
+  </si>
+  <si>
+    <t>0.04%</t>
+  </si>
+  <si>
+    <t>Period: 188</t>
+  </si>
+  <si>
+    <t>EMAFW</t>
+  </si>
+  <si>
+    <t>9.43</t>
+  </si>
+  <si>
+    <t>36.62%</t>
+  </si>
+  <si>
+    <t>41.40%</t>
+  </si>
+  <si>
+    <t>1.54%</t>
+  </si>
+  <si>
+    <t>Period: 39</t>
+  </si>
+  <si>
+    <t>12.88</t>
+  </si>
+  <si>
+    <t>36.87%</t>
+  </si>
+  <si>
+    <t>59.60%</t>
+  </si>
+  <si>
+    <t>1.93%</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>46.63%</t>
+  </si>
+  <si>
+    <t>21.09%</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
+    <t>9.34</t>
+  </si>
+  <si>
+    <t>37.50%</t>
+  </si>
+  <si>
+    <t>42.59%</t>
+  </si>
+  <si>
+    <t>1.52%</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>38.01%</t>
+  </si>
+  <si>
+    <t>62.49%</t>
+  </si>
+  <si>
+    <t>1.91%</t>
+  </si>
+  <si>
+    <t>22.11</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>109.30%</t>
+  </si>
+  <si>
+    <t>2.82%</t>
+  </si>
+  <si>
+    <t>7.85</t>
+  </si>
+  <si>
+    <t>56.08%</t>
+  </si>
+  <si>
+    <t>74.15%</t>
+  </si>
+  <si>
+    <t>Width: 2.6</t>
+  </si>
+  <si>
+    <t>89.91</t>
+  </si>
+  <si>
+    <t>13.81%</t>
+  </si>
+  <si>
+    <t>61.11%</t>
+  </si>
+  <si>
+    <t>4.45%</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>17.22</t>
+  </si>
+  <si>
+    <t>43.24%</t>
+  </si>
+  <si>
+    <t>77.90%</t>
+  </si>
+  <si>
+    <t>3.28%</t>
+  </si>
+  <si>
+    <t>Width: 3.3</t>
+  </si>
+  <si>
+    <t>ATRCloud</t>
+  </si>
+  <si>
+    <t>SBF120</t>
+  </si>
+  <si>
+    <t>Period: 64</t>
+  </si>
+  <si>
+    <t>Width: 2</t>
+  </si>
+  <si>
+    <t>Period: 46</t>
+  </si>
+  <si>
+    <t>CACALL</t>
+  </si>
+  <si>
+    <t>H_1</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>0.01%</t>
+  </si>
+  <si>
+    <t>Width: 1.75</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>24.79%</t>
+  </si>
+  <si>
+    <t>0.48%</t>
+  </si>
+  <si>
+    <t>UpWidth: 3,850001</t>
+  </si>
+  <si>
+    <t>UpWidth: 3,899999</t>
+  </si>
+  <si>
+    <t>Width: 2,799999</t>
+  </si>
+  <si>
+    <t>DownWidth: 0,5</t>
+  </si>
+  <si>
+    <t>Width: 3,8</t>
+  </si>
+  <si>
+    <t>Width: 2,5</t>
+  </si>
+  <si>
+    <t>Width: 0,75</t>
+  </si>
+  <si>
+    <t>Width: 3,5</t>
   </si>
 </sst>
 </file>
@@ -16149,10 +16446,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D621A45-9B8E-401F-BA56-458088F2CB39}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16278,321 +16575,315 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44452.578472222223</v>
+        <v>44458.745138888888</v>
       </c>
       <c r="B3" t="s">
         <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="F3">
-        <v>1646</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>1410</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>48.68</v>
+        <v>8.84</v>
       </c>
       <c r="K3" s="7">
-        <v>0.1434</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="L3" s="7">
-        <v>0.1125</v>
+        <v>0.2361</v>
       </c>
       <c r="M3" s="7">
-        <v>7.1000000000000004E-3</v>
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="N3">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44452.48541666667</v>
+        <v>44453.597222222219</v>
       </c>
       <c r="B4" t="s">
         <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="F4">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="G4">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="H4">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="I4">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>9.3000000000000007</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K4" s="7">
-        <v>0.38919999999999999</v>
+        <v>0.6875</v>
       </c>
       <c r="L4" s="7">
-        <v>0.27789999999999998</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="M4" s="7">
-        <v>6.7000000000000002E-3</v>
+        <v>1.23E-2</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="P4" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="Q4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>44452.487500000003</v>
+        <v>44453.588888888888</v>
       </c>
       <c r="B5" t="s">
         <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="F5">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>9.0500000000000007</v>
+        <v>3.27</v>
       </c>
       <c r="K5" s="7">
-        <v>0.39779999999999999</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="L5" s="7">
-        <v>0.27810000000000001</v>
+        <v>3.32E-2</v>
       </c>
       <c r="M5" s="7">
-        <v>6.7000000000000002E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44452.488194444442</v>
+        <v>44453.589583333334</v>
       </c>
       <c r="B6" t="s">
         <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="F6">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>221</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>9.0500000000000007</v>
+        <v>3.27</v>
       </c>
       <c r="K6" s="7">
-        <v>0.39779999999999999</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="L6" s="7">
-        <v>0.27810000000000001</v>
+        <v>3.32E-2</v>
       </c>
       <c r="M6" s="7">
-        <v>6.7000000000000002E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44452.484027777777</v>
+        <v>44453.590277777781</v>
       </c>
       <c r="B7" t="s">
         <v>279</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="F7">
-        <v>336</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>228</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>12.3</v>
+        <v>3.27</v>
       </c>
       <c r="K7" s="7">
-        <v>0.32140000000000002</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="L7" s="7">
-        <v>0.32469999999999999</v>
+        <v>3.32E-2</v>
       </c>
       <c r="M7" s="7">
-        <v>6.1000000000000004E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44452.488194444442</v>
+        <v>44453.591666666667</v>
       </c>
       <c r="B8" t="s">
         <v>279</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="F8">
-        <v>410</v>
+        <v>95</v>
       </c>
       <c r="G8">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="I8">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="J8">
-        <v>5.09</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7">
-        <v>0.53410000000000002</v>
+        <v>0.2316</v>
       </c>
       <c r="L8" s="7">
-        <v>0.2989</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="M8" s="7">
-        <v>5.7999999999999996E-3</v>
+        <v>1.01E-2</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="P8" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="Q8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44452.584027777775</v>
+        <v>44453.597222222219</v>
       </c>
       <c r="B9" t="s">
         <v>279</v>
@@ -16604,45 +16895,48 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="F9">
-        <v>772</v>
+        <v>341</v>
       </c>
       <c r="G9">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="H9">
-        <v>594</v>
+        <v>115</v>
       </c>
       <c r="I9">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>20.32</v>
+        <v>0.83</v>
       </c>
       <c r="K9" s="7">
-        <v>0.2306</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="L9" s="7">
-        <v>0.32690000000000002</v>
+        <v>2.53E-2</v>
       </c>
       <c r="M9" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c r="P9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44452.584027777775</v>
+        <v>44453.595138888886</v>
       </c>
       <c r="B10" t="s">
         <v>279</v>
@@ -16654,145 +16948,151 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="F10">
-        <v>772</v>
+        <v>232</v>
       </c>
       <c r="G10">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="H10">
-        <v>594</v>
+        <v>180</v>
       </c>
       <c r="I10">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J10">
-        <v>20.32</v>
+        <v>31.63</v>
       </c>
       <c r="K10" s="7">
-        <v>0.2306</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="L10" s="7">
-        <v>0.32690000000000002</v>
+        <v>0.54369999999999996</v>
       </c>
       <c r="M10" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>302</v>
+        <v>195</v>
       </c>
       <c r="P10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44452.477777777778</v>
+        <v>44453.595138888886</v>
       </c>
       <c r="B11" t="s">
         <v>279</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="F11">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="H11">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="I11">
-        <v>65</v>
-      </c>
-      <c r="J11" s="9">
-        <v>15.12</v>
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>7.04</v>
       </c>
       <c r="K11" s="7">
-        <v>0.29470000000000002</v>
+        <v>0.3488</v>
       </c>
       <c r="L11" s="7">
-        <v>0.35449999999999998</v>
+        <v>0.1588</v>
       </c>
       <c r="M11" s="7">
-        <v>5.4000000000000003E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="P11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44452.574305555558</v>
+        <v>44458.746527777781</v>
       </c>
       <c r="B12" t="s">
         <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="F12">
-        <v>663</v>
+        <v>119</v>
       </c>
       <c r="G12">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="H12">
-        <v>464</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>13.65</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="K12" s="7">
-        <v>0.30020000000000002</v>
+        <v>0.437</v>
       </c>
       <c r="L12" s="7">
-        <v>0.39029999999999998</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="M12" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="N12">
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44452.479861111111</v>
+        <v>44452.578472222223</v>
       </c>
       <c r="B13" t="s">
         <v>279</v>
@@ -16804,45 +17104,45 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="F13">
-        <v>319</v>
+        <v>1646</v>
       </c>
       <c r="G13">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="H13">
-        <v>228</v>
+        <v>1410</v>
       </c>
       <c r="I13">
-        <v>52</v>
-      </c>
-      <c r="J13" s="9">
-        <v>11.05</v>
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>48.68</v>
       </c>
       <c r="K13" s="7">
-        <v>0.2853</v>
+        <v>0.1434</v>
       </c>
       <c r="L13" s="7">
-        <v>0.22720000000000001</v>
+        <v>0.1125</v>
       </c>
       <c r="M13" s="7">
-        <v>4.3E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="O13" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="P13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44452.481249999997</v>
+        <v>44452.578472222223</v>
       </c>
       <c r="B14" t="s">
         <v>279</v>
@@ -16854,190 +17154,199 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="F14">
-        <v>319</v>
+        <v>1646</v>
       </c>
       <c r="G14">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="H14">
-        <v>228</v>
+        <v>1410</v>
       </c>
       <c r="I14">
-        <v>52</v>
-      </c>
-      <c r="J14" s="9">
-        <v>11.05</v>
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>48.68</v>
       </c>
       <c r="K14" s="7">
-        <v>0.2853</v>
+        <v>0.1434</v>
       </c>
       <c r="L14" s="7">
-        <v>0.22720000000000001</v>
+        <v>0.1125</v>
       </c>
       <c r="M14" s="7">
-        <v>4.3E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="O14" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="P14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44452.585416666669</v>
+        <v>44452.487500000003</v>
       </c>
       <c r="B15" t="s">
         <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F15">
-        <v>873</v>
+        <v>367</v>
       </c>
       <c r="G15">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="H15">
-        <v>646</v>
+        <v>221</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J15">
-        <v>11.21</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="K15" s="7">
-        <v>0.26</v>
+        <v>0.39779999999999999</v>
       </c>
       <c r="L15" s="7">
-        <v>0.1784</v>
+        <v>0.27810000000000001</v>
       </c>
       <c r="M15" s="7">
-        <v>3.5000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="P15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44452.586111111108</v>
+        <v>44452.488194444442</v>
       </c>
       <c r="B16" t="s">
         <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F16">
-        <v>722</v>
+        <v>367</v>
       </c>
       <c r="G16">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="H16">
-        <v>496</v>
+        <v>221</v>
       </c>
       <c r="I16">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J16">
-        <v>8.7200000000000006</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="K16" s="7">
-        <v>0.313</v>
+        <v>0.39779999999999999</v>
       </c>
       <c r="L16" s="7">
-        <v>0.2104</v>
+        <v>0.27810000000000001</v>
       </c>
       <c r="M16" s="7">
-        <v>3.3999999999999998E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="P16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44452.584722222222</v>
+        <v>44452.48541666667</v>
       </c>
       <c r="B17" t="s">
         <v>279</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="F17">
-        <v>603</v>
+        <v>370</v>
       </c>
       <c r="G17">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17">
-        <v>458</v>
+        <v>226</v>
       </c>
       <c r="I17">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J17">
-        <v>13.38</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K17" s="7">
-        <v>0.24049999999999999</v>
+        <v>0.38919999999999999</v>
       </c>
       <c r="L17" s="7">
-        <v>0.1794</v>
+        <v>0.27789999999999998</v>
       </c>
       <c r="M17" s="7">
-        <v>3.0999999999999999E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="N17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="P17" t="s">
-        <v>299</v>
+        <v>397</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17084,10 +17393,10 @@
         <v>1.5</v>
       </c>
       <c r="O18" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P18" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17104,7 +17413,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F19">
         <v>1279</v>
@@ -17134,13 +17443,13 @@
         <v>1.5</v>
       </c>
       <c r="O19" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17157,7 +17466,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F20">
         <v>1279</v>
@@ -17187,13 +17496,13 @@
         <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17243,7 +17552,7 @@
         <v>248</v>
       </c>
       <c r="P21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17290,10 +17599,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P22" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17310,7 +17619,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F23">
         <v>1580</v>
@@ -17340,48 +17649,2908 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q23" t="s">
         <v>289</v>
       </c>
-      <c r="P23" t="s">
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>44452.570138888892</v>
+      </c>
+      <c r="B24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24">
+        <v>1279</v>
+      </c>
+      <c r="G24">
+        <v>219</v>
+      </c>
+      <c r="H24">
+        <v>1060</v>
+      </c>
+      <c r="I24">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s">
+        <v>301</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="N24" t="s">
+        <v>305</v>
+      </c>
+      <c r="O24" t="s">
+        <v>284</v>
+      </c>
+      <c r="P24" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>44452.571527777778</v>
+      </c>
+      <c r="B25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25">
+        <v>1279</v>
+      </c>
+      <c r="G25">
+        <v>283</v>
+      </c>
+      <c r="H25">
+        <v>996</v>
+      </c>
+      <c r="I25">
+        <v>94</v>
+      </c>
+      <c r="J25" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>44453.592361111114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26">
+        <v>271</v>
+      </c>
+      <c r="G26">
+        <v>57</v>
+      </c>
+      <c r="H26">
+        <v>214</v>
+      </c>
+      <c r="I26">
+        <v>69</v>
+      </c>
+      <c r="J26">
+        <v>26.27</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.4632</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6.6E-3</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>195</v>
+      </c>
+      <c r="P26" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>44452.484027777777</v>
+      </c>
+      <c r="B27" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>336</v>
+      </c>
+      <c r="G27">
+        <v>108</v>
+      </c>
+      <c r="H27">
+        <v>228</v>
+      </c>
+      <c r="I27">
+        <v>53</v>
+      </c>
+      <c r="J27">
+        <v>12.3</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>282</v>
+      </c>
+      <c r="P27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44452.488194444442</v>
+      </c>
+      <c r="B28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F28">
+        <v>410</v>
+      </c>
+      <c r="G28">
+        <v>219</v>
+      </c>
+      <c r="H28">
+        <v>191</v>
+      </c>
+      <c r="I28">
+        <v>51</v>
+      </c>
+      <c r="J28">
+        <v>5.09</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.2989</v>
+      </c>
+      <c r="M28" s="7">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>282</v>
+      </c>
+      <c r="P28" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>44458.741666666669</v>
+      </c>
+      <c r="B29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>384</v>
+      </c>
+      <c r="F29">
+        <v>359</v>
+      </c>
+      <c r="G29">
+        <v>155</v>
+      </c>
+      <c r="H29">
+        <v>204</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>5.89</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>198</v>
+      </c>
+      <c r="P29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>44452.584027777775</v>
+      </c>
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30">
+        <v>772</v>
+      </c>
+      <c r="G30">
+        <v>178</v>
+      </c>
+      <c r="H30">
+        <v>594</v>
+      </c>
+      <c r="I30">
+        <v>59</v>
+      </c>
+      <c r="J30">
+        <v>20.32</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.2306</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="M30" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="N30">
+        <v>1.5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>297</v>
+      </c>
+      <c r="P30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>44452.584027777775</v>
+      </c>
+      <c r="B31" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>292</v>
+      </c>
+      <c r="F31">
+        <v>772</v>
+      </c>
+      <c r="G31">
+        <v>178</v>
+      </c>
+      <c r="H31">
+        <v>594</v>
+      </c>
+      <c r="I31">
+        <v>59</v>
+      </c>
+      <c r="J31">
+        <v>20.32</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.2306</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="M31" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="N31">
+        <v>1.5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>297</v>
+      </c>
+      <c r="P31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>44452.584027777775</v>
+      </c>
+      <c r="B32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32">
+        <v>772</v>
+      </c>
+      <c r="G32">
+        <v>178</v>
+      </c>
+      <c r="H32">
+        <v>594</v>
+      </c>
+      <c r="I32">
+        <v>59</v>
+      </c>
+      <c r="J32">
+        <v>20.32</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.2306</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="N32">
+        <v>1.5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>297</v>
+      </c>
+      <c r="P32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>44452.584027777775</v>
+      </c>
+      <c r="B33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33">
+        <v>772</v>
+      </c>
+      <c r="G33">
+        <v>178</v>
+      </c>
+      <c r="H33">
+        <v>594</v>
+      </c>
+      <c r="I33">
+        <v>59</v>
+      </c>
+      <c r="J33">
+        <v>20.32</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.2306</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="N33">
+        <v>1.5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>297</v>
+      </c>
+      <c r="P33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>44452.477777777778</v>
+      </c>
+      <c r="B34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="H34">
+        <v>67</v>
+      </c>
+      <c r="I34">
+        <v>65</v>
+      </c>
+      <c r="J34" s="9">
+        <v>15.12</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="M34" s="7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>44458.751388888886</v>
+      </c>
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" t="s">
+        <v>389</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35">
+        <v>2635</v>
+      </c>
+      <c r="G35">
+        <v>1054</v>
+      </c>
+      <c r="H35">
+        <v>1581</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>4.04</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L35" s="7">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>44458.753472222219</v>
+      </c>
+      <c r="B36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>384</v>
+      </c>
+      <c r="F36">
+        <v>2635</v>
+      </c>
+      <c r="G36">
+        <v>1054</v>
+      </c>
+      <c r="H36">
+        <v>1581</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>4.04</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L36" s="7">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="M36" s="7">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>44452.607638888891</v>
+      </c>
+      <c r="B37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>311</v>
+      </c>
+      <c r="F37">
+        <v>1490</v>
+      </c>
+      <c r="G37">
+        <v>334</v>
+      </c>
+      <c r="H37">
+        <v>1156</v>
+      </c>
+      <c r="I37">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>19.16</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M37" s="7">
+        <v>5.3E-3</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>44452.60833333333</v>
+      </c>
+      <c r="B38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>311</v>
+      </c>
+      <c r="F38">
+        <v>1313</v>
+      </c>
+      <c r="G38">
+        <v>333</v>
+      </c>
+      <c r="H38">
+        <v>980</v>
+      </c>
+      <c r="I38">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="M38" s="7">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="N38">
+        <v>1.5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>44452.574305555558</v>
+      </c>
+      <c r="B39" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39">
+        <v>663</v>
+      </c>
+      <c r="G39">
+        <v>199</v>
+      </c>
+      <c r="H39">
+        <v>464</v>
+      </c>
+      <c r="I39">
+        <v>77</v>
+      </c>
+      <c r="J39">
+        <v>13.65</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="M39" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
         <v>293</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="P39" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>44452.574305555558</v>
+      </c>
+      <c r="B40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>292</v>
+      </c>
+      <c r="F40">
+        <v>663</v>
+      </c>
+      <c r="G40">
+        <v>199</v>
+      </c>
+      <c r="H40">
+        <v>464</v>
+      </c>
+      <c r="I40">
+        <v>77</v>
+      </c>
+      <c r="J40">
+        <v>13.65</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="M40" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>293</v>
+      </c>
+      <c r="P40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>44452.606944444444</v>
+      </c>
+      <c r="B41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41">
+        <v>1249</v>
+      </c>
+      <c r="G41">
+        <v>332</v>
+      </c>
+      <c r="H41">
+        <v>917</v>
+      </c>
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>15.25</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.20580000000000001</v>
+      </c>
+      <c r="M41" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>44452.479861111111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>319</v>
+      </c>
+      <c r="G42">
+        <v>91</v>
+      </c>
+      <c r="H42">
+        <v>228</v>
+      </c>
+      <c r="I42">
+        <v>52</v>
+      </c>
+      <c r="J42" s="9">
+        <v>11.05</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.2853</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4.3E-3</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>200</v>
+      </c>
+      <c r="P42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>44452.481249999997</v>
+      </c>
+      <c r="B43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>319</v>
+      </c>
+      <c r="G43">
+        <v>91</v>
+      </c>
+      <c r="H43">
+        <v>228</v>
+      </c>
+      <c r="I43">
+        <v>52</v>
+      </c>
+      <c r="J43" s="9">
+        <v>11.05</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.2853</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="M43" s="7">
+        <v>4.3E-3</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>200</v>
+      </c>
+      <c r="P43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>44458.740972222222</v>
+      </c>
+      <c r="B44" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44">
+        <v>1013</v>
+      </c>
+      <c r="G44">
+        <v>415</v>
+      </c>
+      <c r="H44">
+        <v>598</v>
+      </c>
+      <c r="I44">
+        <v>36</v>
+      </c>
+      <c r="J44">
+        <v>5.91</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.1537</v>
+      </c>
+      <c r="M44" s="7">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>158</v>
+      </c>
+      <c r="P44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44453.593055555553</v>
+      </c>
+      <c r="B45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>318</v>
+      </c>
+      <c r="F45">
+        <v>1256</v>
+      </c>
+      <c r="G45">
+        <v>361</v>
+      </c>
+      <c r="H45">
+        <v>895</v>
+      </c>
+      <c r="I45">
+        <v>48</v>
+      </c>
+      <c r="J45">
+        <v>9.19</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="M45" s="7">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44458.740277777775</v>
+      </c>
+      <c r="B46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>384</v>
+      </c>
+      <c r="F46">
+        <v>928</v>
+      </c>
+      <c r="G46">
+        <v>423</v>
+      </c>
+      <c r="H46">
+        <v>505</v>
+      </c>
+      <c r="I46">
+        <v>41</v>
+      </c>
+      <c r="J46">
+        <v>4.96</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.45579999999999998</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.17269999999999999</v>
+      </c>
+      <c r="M46" s="7">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>158</v>
+      </c>
+      <c r="P46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>44452.585416666669</v>
+      </c>
+      <c r="B47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>292</v>
+      </c>
+      <c r="F47">
+        <v>873</v>
+      </c>
+      <c r="G47">
+        <v>227</v>
+      </c>
+      <c r="H47">
+        <v>646</v>
+      </c>
+      <c r="I47">
+        <v>50</v>
+      </c>
+      <c r="J47">
+        <v>11.21</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.1784</v>
+      </c>
+      <c r="M47" s="7">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="N47">
+        <v>1.5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>297</v>
+      </c>
+      <c r="P47" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44452.585416666669</v>
+      </c>
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48">
+        <v>873</v>
+      </c>
+      <c r="G48">
+        <v>227</v>
+      </c>
+      <c r="H48">
+        <v>646</v>
+      </c>
+      <c r="I48">
+        <v>50</v>
+      </c>
+      <c r="J48">
+        <v>11.21</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.1784</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="N48">
+        <v>1.5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>297</v>
+      </c>
+      <c r="P48" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44452.586111111108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>292</v>
+      </c>
+      <c r="F49">
+        <v>722</v>
+      </c>
+      <c r="G49">
+        <v>226</v>
+      </c>
+      <c r="H49">
+        <v>496</v>
+      </c>
+      <c r="I49">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.2104</v>
+      </c>
+      <c r="M49" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>300</v>
+      </c>
+      <c r="P49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44452.586111111108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50">
+        <v>722</v>
+      </c>
+      <c r="G50">
+        <v>226</v>
+      </c>
+      <c r="H50">
+        <v>496</v>
+      </c>
+      <c r="I50">
+        <v>62</v>
+      </c>
+      <c r="J50">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.2104</v>
+      </c>
+      <c r="M50" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>300</v>
+      </c>
+      <c r="P50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44458.73541666667</v>
+      </c>
+      <c r="B51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>384</v>
+      </c>
+      <c r="F51">
+        <v>3095</v>
+      </c>
+      <c r="G51">
+        <v>1077</v>
+      </c>
+      <c r="H51">
+        <v>2018</v>
+      </c>
+      <c r="I51">
+        <v>19</v>
+      </c>
+      <c r="J51">
+        <v>5.08</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L51" s="7">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="M51" s="7">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>388</v>
+      </c>
+      <c r="P51" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44453.594444444447</v>
+      </c>
+      <c r="B52" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>318</v>
+      </c>
+      <c r="F52">
+        <v>2139</v>
+      </c>
+      <c r="G52">
+        <v>736</v>
+      </c>
+      <c r="H52">
+        <v>1403</v>
+      </c>
+      <c r="I52">
+        <v>31</v>
+      </c>
+      <c r="J52">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.1022</v>
+      </c>
+      <c r="M52" s="7">
+        <v>3.3E-3</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>44453.59375</v>
+      </c>
+      <c r="B53" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" t="s">
+        <v>322</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>318</v>
+      </c>
+      <c r="F53">
+        <v>2909</v>
+      </c>
+      <c r="G53">
+        <v>1059</v>
+      </c>
+      <c r="H53">
+        <v>1850</v>
+      </c>
+      <c r="I53">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="L53" s="7">
+        <v>8.77E-2</v>
+      </c>
+      <c r="M53" s="7">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>44458.729861111111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" t="s">
+        <v>385</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54">
+        <v>6880</v>
+      </c>
+      <c r="G54">
+        <v>3071</v>
+      </c>
+      <c r="H54">
+        <v>3809</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>2.5</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="L54" s="7">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="M54" s="7">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>386</v>
+      </c>
+      <c r="P54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>44458.674305555556</v>
+      </c>
+      <c r="B55" t="s">
+        <v>279</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55">
+        <v>1236</v>
+      </c>
+      <c r="G55">
+        <v>495</v>
+      </c>
+      <c r="H55">
+        <v>741</v>
+      </c>
+      <c r="I55">
+        <v>98</v>
+      </c>
+      <c r="J55" t="s">
+        <v>335</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>44458.675000000003</v>
+      </c>
+      <c r="B56" t="s">
+        <v>279</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>334</v>
+      </c>
+      <c r="F56">
+        <v>890</v>
+      </c>
+      <c r="G56">
+        <v>340</v>
+      </c>
+      <c r="H56">
+        <v>550</v>
+      </c>
+      <c r="I56">
+        <v>139</v>
+      </c>
+      <c r="J56" t="s">
+        <v>339</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>44458.688194444447</v>
+      </c>
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>344</v>
+      </c>
+      <c r="F57">
+        <v>213</v>
+      </c>
+      <c r="G57">
+        <v>78</v>
+      </c>
+      <c r="H57">
+        <v>135</v>
+      </c>
+      <c r="I57">
+        <v>26</v>
+      </c>
+      <c r="J57" t="s">
+        <v>345</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>44452.584722222222</v>
+      </c>
+      <c r="B58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58">
+        <v>603</v>
+      </c>
+      <c r="G58">
+        <v>145</v>
+      </c>
+      <c r="H58">
+        <v>458</v>
+      </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>13.38</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0.1794</v>
+      </c>
+      <c r="M58" s="7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N58">
+        <v>1.5</v>
+      </c>
+      <c r="O58" t="s">
+        <v>298</v>
+      </c>
+      <c r="P58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>44452.584722222222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59">
+        <v>603</v>
+      </c>
+      <c r="G59">
+        <v>145</v>
+      </c>
+      <c r="H59">
+        <v>458</v>
+      </c>
+      <c r="I59">
+        <v>57</v>
+      </c>
+      <c r="J59">
+        <v>13.38</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0.1794</v>
+      </c>
+      <c r="M59" s="7">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="N59">
+        <v>1.5</v>
+      </c>
+      <c r="O59" t="s">
+        <v>298</v>
+      </c>
+      <c r="P59" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>44458.69027777778</v>
+      </c>
+      <c r="B60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>344</v>
+      </c>
+      <c r="F60">
+        <v>179</v>
+      </c>
+      <c r="G60">
+        <v>66</v>
+      </c>
+      <c r="H60">
+        <v>113</v>
+      </c>
+      <c r="I60">
+        <v>30</v>
+      </c>
+      <c r="J60" t="s">
+        <v>350</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>44458.690972222219</v>
+      </c>
+      <c r="B61" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F61">
+        <v>356</v>
+      </c>
+      <c r="G61">
+        <v>166</v>
+      </c>
+      <c r="H61">
+        <v>190</v>
+      </c>
+      <c r="I61">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>354</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>44458.690972222219</v>
+      </c>
+      <c r="B62" t="s">
+        <v>279</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>344</v>
+      </c>
+      <c r="F62">
+        <v>208</v>
+      </c>
+      <c r="G62">
+        <v>78</v>
+      </c>
+      <c r="H62">
+        <v>130</v>
+      </c>
+      <c r="I62">
+        <v>28</v>
+      </c>
+      <c r="J62" t="s">
+        <v>358</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>44452.612500000003</v>
+      </c>
+      <c r="B63" t="s">
+        <v>279</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>313</v>
+      </c>
+      <c r="F63">
+        <v>1266</v>
+      </c>
+      <c r="G63">
+        <v>441</v>
+      </c>
+      <c r="H63">
+        <v>825</v>
+      </c>
+      <c r="I63">
+        <v>36</v>
+      </c>
+      <c r="J63">
+        <v>5.28</v>
+      </c>
+      <c r="K63" s="7">
+        <v>0.3483</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="M63" s="7">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>316</v>
+      </c>
+      <c r="P63" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>44452.613194444442</v>
+      </c>
+      <c r="B64" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>313</v>
+      </c>
+      <c r="F64">
+        <v>1289</v>
+      </c>
+      <c r="G64">
+        <v>421</v>
+      </c>
+      <c r="H64">
+        <v>868</v>
+      </c>
+      <c r="I64">
+        <v>33</v>
+      </c>
+      <c r="J64">
+        <v>5.76</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0.3266</v>
+      </c>
+      <c r="L64" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M64" s="7">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>316</v>
+      </c>
+      <c r="P64" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>44458.691666666666</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>344</v>
+      </c>
+      <c r="F65">
+        <v>171</v>
+      </c>
+      <c r="G65">
+        <v>65</v>
+      </c>
+      <c r="H65">
+        <v>106</v>
+      </c>
+      <c r="I65">
+        <v>32</v>
+      </c>
+      <c r="J65" t="s">
+        <v>362</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>44458.693055555559</v>
+      </c>
+      <c r="B66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>182</v>
+      </c>
+      <c r="G66">
+        <v>56</v>
+      </c>
+      <c r="H66">
+        <v>126</v>
+      </c>
+      <c r="I66">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s">
+        <v>366</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>114</v>
+      </c>
+      <c r="P66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>44458.693749999999</v>
+      </c>
+      <c r="B67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67">
+        <v>551</v>
+      </c>
+      <c r="G67">
+        <v>309</v>
+      </c>
+      <c r="H67">
+        <v>242</v>
+      </c>
+      <c r="I67">
+        <v>29</v>
+      </c>
+      <c r="J67" t="s">
+        <v>370</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P67" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>44458.695833333331</v>
+      </c>
+      <c r="B68" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>210</v>
+      </c>
+      <c r="G68">
+        <v>29</v>
+      </c>
+      <c r="H68">
+        <v>181</v>
+      </c>
+      <c r="I68">
+        <v>13</v>
+      </c>
+      <c r="J68" t="s">
+        <v>374</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="N68" t="s">
+        <v>378</v>
+      </c>
+      <c r="O68" t="s">
+        <v>41</v>
+      </c>
+      <c r="P68" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>44458.697222222225</v>
+      </c>
+      <c r="B69" t="s">
+        <v>279</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>414</v>
+      </c>
+      <c r="G69">
+        <v>179</v>
+      </c>
+      <c r="H69">
+        <v>235</v>
+      </c>
+      <c r="I69">
+        <v>23</v>
+      </c>
+      <c r="J69" t="s">
+        <v>379</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>34</v>
+      </c>
+      <c r="P69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>44452.612500000003</v>
+      </c>
+      <c r="B70" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>313</v>
+      </c>
+      <c r="F70">
+        <v>1338</v>
+      </c>
+      <c r="G70">
+        <v>411</v>
+      </c>
+      <c r="H70">
+        <v>927</v>
+      </c>
+      <c r="I70">
+        <v>30</v>
+      </c>
+      <c r="J70">
+        <v>6.26</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="L70" s="7">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="M70" s="7">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N70">
+        <v>1.5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>316</v>
+      </c>
+      <c r="P70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>44453.594444444447</v>
+      </c>
+      <c r="B71" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>318</v>
+      </c>
+      <c r="F71">
+        <v>831</v>
+      </c>
+      <c r="G71">
+        <v>287</v>
+      </c>
+      <c r="H71">
+        <v>544</v>
+      </c>
+      <c r="I71">
+        <v>43</v>
+      </c>
+      <c r="J71">
+        <v>5.63</v>
+      </c>
+      <c r="K71" s="7">
+        <v>0.34539999999999998</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0.12039999999999999</v>
+      </c>
+      <c r="M71" s="7">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>44452.61041666667</v>
+      </c>
+      <c r="B72" t="s">
+        <v>279</v>
+      </c>
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>313</v>
+      </c>
+      <c r="F72">
+        <v>1750</v>
+      </c>
+      <c r="G72">
+        <v>506</v>
+      </c>
+      <c r="H72">
+        <v>1244</v>
+      </c>
+      <c r="I72">
+        <v>23</v>
+      </c>
+      <c r="J72">
+        <v>5.89</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="L72" s="7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="M72" s="7">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="N72">
+        <v>1.5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>314</v>
+      </c>
+      <c r="P72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>44452.61041666667</v>
+      </c>
+      <c r="B73" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>313</v>
+      </c>
+      <c r="F73">
+        <v>1625</v>
+      </c>
+      <c r="G73">
+        <v>521</v>
+      </c>
+      <c r="H73">
+        <v>1104</v>
+      </c>
+      <c r="I73">
+        <v>28</v>
+      </c>
+      <c r="J73">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="K73" s="7">
+        <v>0.3206</v>
+      </c>
+      <c r="L73" s="7">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="M73" s="7">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>314</v>
+      </c>
+      <c r="P73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>44458.723611111112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>384</v>
+      </c>
+      <c r="F74">
+        <v>3181</v>
+      </c>
+      <c r="G74">
+        <v>1460</v>
+      </c>
+      <c r="H74">
+        <v>1721</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>1.7</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="L74" s="7">
+        <v>1.34E-2</v>
+      </c>
+      <c r="M74" s="7">
+        <v>1.8E-3</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>197</v>
+      </c>
+      <c r="P74" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>44458.690972222219</v>
+      </c>
+      <c r="B75" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>344</v>
+      </c>
+      <c r="F75">
+        <v>875</v>
+      </c>
+      <c r="G75">
+        <v>264</v>
+      </c>
+      <c r="H75">
+        <v>611</v>
+      </c>
+      <c r="I75">
+        <v>31</v>
+      </c>
+      <c r="J75">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="L75" s="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="M75" s="7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>44458.688888888886</v>
+      </c>
+      <c r="B76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>344</v>
+      </c>
+      <c r="F76">
+        <v>893</v>
+      </c>
+      <c r="G76">
+        <v>265</v>
+      </c>
+      <c r="H76">
+        <v>628</v>
+      </c>
+      <c r="I76">
+        <v>30</v>
+      </c>
+      <c r="J76">
+        <v>4.76</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="L76" s="7">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="M76" s="7">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>44458.688888888886</v>
+      </c>
+      <c r="B77" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>344</v>
+      </c>
+      <c r="F77">
+        <v>1105</v>
+      </c>
+      <c r="G77">
+        <v>351</v>
+      </c>
+      <c r="H77">
+        <v>754</v>
+      </c>
+      <c r="I77">
+        <v>25</v>
+      </c>
+      <c r="J77">
+        <v>3.87</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="L77" s="7">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="M77" s="7">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>44458.690972222219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>344</v>
+      </c>
+      <c r="F78">
+        <v>1086</v>
+      </c>
+      <c r="G78">
+        <v>350</v>
+      </c>
+      <c r="H78">
+        <v>736</v>
+      </c>
+      <c r="I78">
+        <v>25</v>
+      </c>
+      <c r="J78">
+        <v>3.73</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="L78" s="7">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="M78" s="7">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>44452.577777777777</v>
+      </c>
+      <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>292</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <v>0</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>293</v>
+      </c>
+      <c r="P79" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>44458.759027777778</v>
+      </c>
+      <c r="B80" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>390</v>
+      </c>
+      <c r="E80" t="s">
+        <v>384</v>
+      </c>
+      <c r="F80">
+        <v>2923</v>
+      </c>
+      <c r="G80">
+        <v>915</v>
+      </c>
+      <c r="H80">
+        <v>2008</v>
+      </c>
+      <c r="I80">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>391</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L80" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M80" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>282</v>
+      </c>
+      <c r="P80" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>44458.759722222225</v>
+      </c>
+      <c r="B81" t="s">
+        <v>279</v>
+      </c>
+      <c r="C81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" t="s">
+        <v>384</v>
+      </c>
+      <c r="F81">
+        <v>1686</v>
+      </c>
+      <c r="G81">
+        <v>418</v>
+      </c>
+      <c r="H81">
+        <v>1268</v>
+      </c>
+      <c r="I81">
+        <v>41</v>
+      </c>
+      <c r="J81" t="s">
+        <v>394</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L81" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81" t="s">
+        <v>284</v>
+      </c>
+      <c r="P81" t="s">
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R23" xr:uid="{F142F9EB-8C48-4879-8B8E-705B72EBC6BD}">
+  <autoFilter ref="A1:R81" xr:uid="{F142F9EB-8C48-4879-8B8E-705B72EBC6BD}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="CACALL"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Weekly"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R23">
-      <sortCondition descending="1" ref="M1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R79">
+      <sortCondition descending="1" ref="M1:M81"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AgentReport.xlsx
+++ b/AgentReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8868F0D2-0711-4981-81EB-07C9808F4F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C418EE-CA25-435E-9F9E-2BB8E0DB3F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3035B6FD-75E4-4FC2-A8E8-CD00703F1281}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$247</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$R$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$Q$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="357">
   <si>
     <t>CAC40</t>
   </si>
@@ -954,36 +954,9 @@
     <t>Trigger: 30</t>
   </si>
   <si>
-    <t>13.27</t>
-  </si>
-  <si>
-    <t>17.12%</t>
-  </si>
-  <si>
-    <t>5.53%</t>
-  </si>
-  <si>
-    <t>0.07%</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>9.47</t>
-  </si>
-  <si>
-    <t>22.13%</t>
-  </si>
-  <si>
-    <t>6.52%</t>
-  </si>
-  <si>
     <t>TrailATR: 1</t>
   </si>
   <si>
-    <t>31.30%</t>
-  </si>
-  <si>
     <t>EMABODY</t>
   </si>
   <si>
@@ -1023,9 +996,6 @@
     <t>SellLevel: 20</t>
   </si>
   <si>
-    <t>0.32%</t>
-  </si>
-  <si>
     <t>BuyLevel: 70</t>
   </si>
   <si>
@@ -1050,156 +1020,21 @@
     <t>RSIInv</t>
   </si>
   <si>
-    <t>2.53%</t>
-  </si>
-  <si>
     <t>EMAMonthly</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>40.05%</t>
-  </si>
-  <si>
-    <t>3.27%</t>
-  </si>
-  <si>
-    <t>0.03%</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
-  <si>
-    <t>38.20%</t>
-  </si>
-  <si>
-    <t>5.54%</t>
-  </si>
-  <si>
-    <t>0.04%</t>
-  </si>
-  <si>
     <t>Period: 188</t>
   </si>
   <si>
     <t>EMAFW</t>
   </si>
   <si>
-    <t>9.43</t>
-  </si>
-  <si>
-    <t>36.62%</t>
-  </si>
-  <si>
-    <t>41.40%</t>
-  </si>
-  <si>
-    <t>1.54%</t>
-  </si>
-  <si>
     <t>Period: 39</t>
   </si>
   <si>
-    <t>12.88</t>
-  </si>
-  <si>
-    <t>36.87%</t>
-  </si>
-  <si>
-    <t>59.60%</t>
-  </si>
-  <si>
-    <t>1.93%</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>46.63%</t>
-  </si>
-  <si>
-    <t>21.09%</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>9.34</t>
-  </si>
-  <si>
-    <t>37.50%</t>
-  </si>
-  <si>
-    <t>42.59%</t>
-  </si>
-  <si>
-    <t>1.52%</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>38.01%</t>
-  </si>
-  <si>
-    <t>62.49%</t>
-  </si>
-  <si>
-    <t>1.91%</t>
-  </si>
-  <si>
-    <t>22.11</t>
-  </si>
-  <si>
-    <t>30.77%</t>
-  </si>
-  <si>
-    <t>109.30%</t>
-  </si>
-  <si>
-    <t>2.82%</t>
-  </si>
-  <si>
-    <t>7.85</t>
-  </si>
-  <si>
-    <t>56.08%</t>
-  </si>
-  <si>
-    <t>74.15%</t>
-  </si>
-  <si>
     <t>Width: 2.6</t>
   </si>
   <si>
-    <t>89.91</t>
-  </si>
-  <si>
-    <t>13.81%</t>
-  </si>
-  <si>
-    <t>61.11%</t>
-  </si>
-  <si>
-    <t>4.45%</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>17.22</t>
-  </si>
-  <si>
-    <t>43.24%</t>
-  </si>
-  <si>
-    <t>77.90%</t>
-  </si>
-  <si>
-    <t>3.28%</t>
-  </si>
-  <si>
     <t>Width: 3.3</t>
   </si>
   <si>
@@ -1224,24 +1059,9 @@
     <t>H_1</t>
   </si>
   <si>
-    <t>3.01</t>
-  </si>
-  <si>
-    <t>0.01%</t>
-  </si>
-  <si>
     <t>Width: 1.75</t>
   </si>
   <si>
-    <t>4.31</t>
-  </si>
-  <si>
-    <t>24.79%</t>
-  </si>
-  <si>
-    <t>0.48%</t>
-  </si>
-  <si>
     <t>UpWidth: 3,850001</t>
   </si>
   <si>
@@ -1264,6 +1084,42 @@
   </si>
   <si>
     <t>Width: 3,5</t>
+  </si>
+  <si>
+    <t>TrailEMATF</t>
+  </si>
+  <si>
+    <t>Period: 61</t>
+  </si>
+  <si>
+    <t>Period: 94</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>Period: 49</t>
+  </si>
+  <si>
+    <t>HOLLAND</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>NbATR: 0.5</t>
+  </si>
+  <si>
+    <t>Period: 74</t>
+  </si>
+  <si>
+    <t>NbATR: 3.5</t>
+  </si>
+  <si>
+    <t>NbATR: 1</t>
   </si>
 </sst>
 </file>
@@ -16446,10 +16302,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D621A45-9B8E-401F-BA56-458088F2CB39}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16583,13 +16439,13 @@
         <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -16622,7 +16478,7 @@
         <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16639,7 +16495,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F4">
         <v>336</v>
@@ -16672,10 +16528,10 @@
         <v>195</v>
       </c>
       <c r="P4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16692,7 +16548,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F5">
         <v>11</v>
@@ -16725,7 +16581,7 @@
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16742,7 +16598,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -16775,7 +16631,7 @@
         <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16792,7 +16648,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -16825,7 +16681,7 @@
         <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16842,7 +16698,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F8">
         <v>95</v>
@@ -16875,10 +16731,10 @@
         <v>195</v>
       </c>
       <c r="P8" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q8" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16895,7 +16751,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F9">
         <v>341</v>
@@ -16928,10 +16784,10 @@
         <v>195</v>
       </c>
       <c r="P9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -16948,7 +16804,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F10">
         <v>232</v>
@@ -16981,10 +16837,10 @@
         <v>195</v>
       </c>
       <c r="P10" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Q10" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17001,7 +16857,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F11">
         <v>344</v>
@@ -17034,10 +16890,10 @@
         <v>195</v>
       </c>
       <c r="P11" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="Q11" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17048,13 +16904,13 @@
         <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F12">
         <v>119</v>
@@ -17237,7 +17093,7 @@
         <v>282</v>
       </c>
       <c r="P15" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="Q15" t="s">
         <v>160</v>
@@ -17290,7 +17146,7 @@
         <v>282</v>
       </c>
       <c r="P16" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="Q16" t="s">
         <v>160</v>
@@ -17343,7 +17199,7 @@
         <v>282</v>
       </c>
       <c r="P17" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="Q17" t="s">
         <v>160</v>
@@ -17686,20 +17542,20 @@
       <c r="I24">
         <v>74</v>
       </c>
-      <c r="J24" t="s">
-        <v>301</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="N24" t="s">
-        <v>305</v>
+      <c r="J24">
+        <v>13.27</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="L24" s="7">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N24">
+        <v>1.5</v>
       </c>
       <c r="O24" t="s">
         <v>284</v>
@@ -17739,17 +17595,17 @@
       <c r="I25">
         <v>94</v>
       </c>
-      <c r="J25" t="s">
-        <v>306</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>304</v>
+      <c r="J25">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.2213</v>
+      </c>
+      <c r="L25" s="7">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N25">
         <v>2</v>
@@ -17772,13 +17628,13 @@
         <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F26">
         <v>271</v>
@@ -17811,10 +17667,10 @@
         <v>195</v>
       </c>
       <c r="P26" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q26" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17864,7 +17720,7 @@
         <v>282</v>
       </c>
       <c r="P27" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17914,10 +17770,10 @@
         <v>282</v>
       </c>
       <c r="P28" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="Q28" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -17928,13 +17784,13 @@
         <v>279</v>
       </c>
       <c r="C29" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F29">
         <v>359</v>
@@ -18217,10 +18073,10 @@
         <v>46</v>
       </c>
       <c r="P34" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44458.751388888886</v>
       </c>
@@ -18228,13 +18084,13 @@
         <v>279</v>
       </c>
       <c r="C35" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F35">
         <v>2635</v>
@@ -18270,7 +18126,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44458.753472222219</v>
       </c>
@@ -18278,13 +18134,13 @@
         <v>279</v>
       </c>
       <c r="C36" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F36">
         <v>2635</v>
@@ -18334,7 +18190,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F37">
         <v>1490</v>
@@ -18364,7 +18220,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -18381,7 +18237,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F38">
         <v>1313</v>
@@ -18411,7 +18267,7 @@
         <v>1.5</v>
       </c>
       <c r="O38" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -18528,7 +18384,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F41">
         <v>1249</v>
@@ -18558,7 +18414,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -18669,13 +18525,13 @@
         <v>279</v>
       </c>
       <c r="C44" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F44">
         <v>1013</v>
@@ -18708,7 +18564,7 @@
         <v>158</v>
       </c>
       <c r="P44" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -18719,13 +18575,13 @@
         <v>279</v>
       </c>
       <c r="C45" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F45">
         <v>1256</v>
@@ -18758,10 +18614,10 @@
         <v>33</v>
       </c>
       <c r="P45" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q45" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -18772,13 +18628,13 @@
         <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F46">
         <v>928</v>
@@ -18811,7 +18667,7 @@
         <v>158</v>
       </c>
       <c r="P46" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19022,13 +18878,13 @@
         <v>279</v>
       </c>
       <c r="C51" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F51">
         <v>3095</v>
@@ -19058,10 +18914,10 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="P51" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19072,13 +18928,13 @@
         <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F52">
         <v>2139</v>
@@ -19111,10 +18967,10 @@
         <v>33</v>
       </c>
       <c r="P52" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Q52" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19125,13 +18981,13 @@
         <v>279</v>
       </c>
       <c r="C53" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F53">
         <v>2909</v>
@@ -19164,10 +19020,10 @@
         <v>33</v>
       </c>
       <c r="P53" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Q53" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19178,13 +19034,13 @@
         <v>279</v>
       </c>
       <c r="C54" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F54">
         <v>6880</v>
@@ -19214,10 +19070,10 @@
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="P54" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19234,7 +19090,7 @@
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F55">
         <v>1236</v>
@@ -19248,17 +19104,17 @@
       <c r="I55">
         <v>98</v>
       </c>
-      <c r="J55" t="s">
-        <v>335</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>338</v>
+      <c r="J55">
+        <v>2.6</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="L55" s="7">
+        <v>3.27E-2</v>
+      </c>
+      <c r="M55" s="7">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -19281,7 +19137,7 @@
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F56">
         <v>890</v>
@@ -19295,23 +19151,23 @@
       <c r="I56">
         <v>139</v>
       </c>
-      <c r="J56" t="s">
-        <v>339</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>342</v>
+      <c r="J56">
+        <v>3.54</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="L56" s="7">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="M56" s="7">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="N56">
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19328,7 +19184,7 @@
         <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F57">
         <v>213</v>
@@ -19342,17 +19198,17 @@
       <c r="I57">
         <v>26</v>
       </c>
-      <c r="J57" t="s">
-        <v>345</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>348</v>
+      <c r="J57">
+        <v>9.43</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="M57" s="7">
+        <v>1.54E-2</v>
       </c>
       <c r="N57">
         <v>2</v>
@@ -19475,7 +19331,7 @@
         <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F60">
         <v>179</v>
@@ -19489,17 +19345,17 @@
       <c r="I60">
         <v>30</v>
       </c>
-      <c r="J60" t="s">
-        <v>350</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>353</v>
+      <c r="J60">
+        <v>12.88</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="M60" s="7">
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="N60">
         <v>2</v>
@@ -19522,7 +19378,7 @@
         <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F61">
         <v>356</v>
@@ -19536,17 +19392,17 @@
       <c r="I61">
         <v>18</v>
       </c>
-      <c r="J61" t="s">
-        <v>354</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>357</v>
+      <c r="J61">
+        <v>4.21</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0.2109</v>
+      </c>
+      <c r="M61" s="7">
+        <v>1.17E-2</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -19569,7 +19425,7 @@
         <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F62">
         <v>208</v>
@@ -19583,23 +19439,23 @@
       <c r="I62">
         <v>28</v>
       </c>
-      <c r="J62" t="s">
-        <v>358</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>361</v>
+      <c r="J62">
+        <v>9.34</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0.4259</v>
+      </c>
+      <c r="M62" s="7">
+        <v>1.52E-2</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19616,7 +19472,7 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F63">
         <v>1266</v>
@@ -19646,10 +19502,10 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P63" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19666,7 +19522,7 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F64">
         <v>1289</v>
@@ -19696,10 +19552,10 @@
         <v>2</v>
       </c>
       <c r="O64" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P64" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19716,7 +19572,7 @@
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F65">
         <v>171</v>
@@ -19730,17 +19586,17 @@
       <c r="I65">
         <v>32</v>
       </c>
-      <c r="J65" t="s">
-        <v>362</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>365</v>
+      <c r="J65">
+        <v>12.6</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.38009999999999999</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="M65" s="7">
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -19777,17 +19633,17 @@
       <c r="I66">
         <v>38</v>
       </c>
-      <c r="J66" t="s">
-        <v>366</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>369</v>
+      <c r="J66">
+        <v>22.11</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="L66" s="7">
+        <v>1.093</v>
+      </c>
+      <c r="M66" s="7">
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="N66">
         <v>2</v>
@@ -19827,17 +19683,17 @@
       <c r="I67">
         <v>29</v>
       </c>
-      <c r="J67" t="s">
-        <v>370</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M67" s="7" t="s">
-        <v>333</v>
+      <c r="J67">
+        <v>7.85</v>
+      </c>
+      <c r="K67" s="7">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="M67" s="7">
+        <v>2.53E-2</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -19846,7 +19702,7 @@
         <v>34</v>
       </c>
       <c r="P67" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19877,20 +19733,20 @@
       <c r="I68">
         <v>13</v>
       </c>
-      <c r="J68" t="s">
-        <v>374</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="N68" t="s">
-        <v>378</v>
+      <c r="J68">
+        <v>89.91</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0.1381</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0.61109999999999998</v>
+      </c>
+      <c r="M68" s="7">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="N68">
+        <v>0.5</v>
       </c>
       <c r="O68" t="s">
         <v>41</v>
@@ -19927,17 +19783,17 @@
       <c r="I69">
         <v>23</v>
       </c>
-      <c r="J69" t="s">
-        <v>379</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>382</v>
+      <c r="J69">
+        <v>17.22</v>
+      </c>
+      <c r="K69" s="7">
+        <v>0.43240000000000001</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="M69" s="7">
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -19946,7 +19802,7 @@
         <v>34</v>
       </c>
       <c r="P69" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -19963,7 +19819,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F70">
         <v>1338</v>
@@ -19993,10 +19849,10 @@
         <v>1.5</v>
       </c>
       <c r="O70" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P70" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -20013,7 +19869,7 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F71">
         <v>831</v>
@@ -20046,10 +19902,10 @@
         <v>33</v>
       </c>
       <c r="P71" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="Q71" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -20066,7 +19922,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F72">
         <v>1750</v>
@@ -20096,10 +19952,10 @@
         <v>1.5</v>
       </c>
       <c r="O72" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P72" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -20116,7 +19972,7 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F73">
         <v>1625</v>
@@ -20146,10 +20002,10 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P73" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -20166,7 +20022,7 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F74">
         <v>3181</v>
@@ -20199,7 +20055,7 @@
         <v>197</v>
       </c>
       <c r="P74" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
     </row>
     <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -20216,7 +20072,7 @@
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F75">
         <v>875</v>
@@ -20263,7 +20119,7 @@
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F76">
         <v>893</v>
@@ -20310,7 +20166,7 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F77">
         <v>1105</v>
@@ -20340,7 +20196,7 @@
         <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -20357,7 +20213,7 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F78">
         <v>1086</v>
@@ -20387,7 +20243,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -20434,7 +20290,7 @@
         <v>293</v>
       </c>
       <c r="P79" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -20448,10 +20304,10 @@
         <v>29</v>
       </c>
       <c r="D80" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="E80" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F80">
         <v>2923</v>
@@ -20465,17 +20321,17 @@
       <c r="I80">
         <v>26</v>
       </c>
-      <c r="J80" t="s">
-        <v>391</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M80" s="7" t="s">
-        <v>392</v>
+      <c r="J80">
+        <v>3.01</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0.313</v>
+      </c>
+      <c r="L80" s="7">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M80" s="7">
+        <v>1E-4</v>
       </c>
       <c r="N80">
         <v>2</v>
@@ -20484,7 +20340,7 @@
         <v>282</v>
       </c>
       <c r="P80" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -20498,10 +20354,10 @@
         <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="E81" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="F81">
         <v>1686</v>
@@ -20515,17 +20371,17 @@
       <c r="I81">
         <v>41</v>
       </c>
-      <c r="J81" t="s">
-        <v>394</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L81" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="M81" s="7" t="s">
-        <v>392</v>
+      <c r="J81">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K81" s="7">
+        <v>0.24790000000000001</v>
+      </c>
+      <c r="L81" s="7">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="M81" s="7">
+        <v>1E-4</v>
       </c>
       <c r="N81">
         <v>2</v>
@@ -20537,21 +20393,680 @@
         <v>285</v>
       </c>
     </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>44477.961805555555</v>
+      </c>
+      <c r="B82" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>345</v>
+      </c>
+      <c r="F82">
+        <v>3075</v>
+      </c>
+      <c r="G82">
+        <v>1044</v>
+      </c>
+      <c r="H82">
+        <v>2031</v>
+      </c>
+      <c r="I82">
+        <v>40</v>
+      </c>
+      <c r="J82">
+        <v>7</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="M82" s="7">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>44477.962500000001</v>
+      </c>
+      <c r="B83" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>345</v>
+      </c>
+      <c r="F83">
+        <v>2912</v>
+      </c>
+      <c r="G83">
+        <v>658</v>
+      </c>
+      <c r="H83">
+        <v>2254</v>
+      </c>
+      <c r="I83">
+        <v>27</v>
+      </c>
+      <c r="J83">
+        <v>11.73</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0.1106</v>
+      </c>
+      <c r="M83" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N83">
+        <v>0.99999979999999999</v>
+      </c>
+      <c r="O83" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>44477.963194444441</v>
+      </c>
+      <c r="B84" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" t="s">
+        <v>345</v>
+      </c>
+      <c r="F84">
+        <v>2412</v>
+      </c>
+      <c r="G84">
+        <v>414</v>
+      </c>
+      <c r="H84">
+        <v>1998</v>
+      </c>
+      <c r="I84">
+        <v>25</v>
+      </c>
+      <c r="J84">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0.1716</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0.1128</v>
+      </c>
+      <c r="M84" s="7">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N84">
+        <v>0.6999997</v>
+      </c>
+      <c r="O84" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>44477.964583333334</v>
+      </c>
+      <c r="B85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>345</v>
+      </c>
+      <c r="F85">
+        <v>3043</v>
+      </c>
+      <c r="G85">
+        <v>1114</v>
+      </c>
+      <c r="H85">
+        <v>1929</v>
+      </c>
+      <c r="I85">
+        <v>44</v>
+      </c>
+      <c r="J85">
+        <v>6.37</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0.1729</v>
+      </c>
+      <c r="M85" s="7">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>44478.558333333334</v>
+      </c>
+      <c r="B86" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" t="s">
+        <v>348</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>345</v>
+      </c>
+      <c r="F86">
+        <v>638</v>
+      </c>
+      <c r="G86">
+        <v>228</v>
+      </c>
+      <c r="H86">
+        <v>410</v>
+      </c>
+      <c r="I86">
+        <v>39</v>
+      </c>
+      <c r="J86">
+        <v>5.08</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0.3574</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0.1008</v>
+      </c>
+      <c r="M86" s="7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>44478.558333333334</v>
+      </c>
+      <c r="B87" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" t="s">
+        <v>350</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>345</v>
+      </c>
+      <c r="F87">
+        <v>522</v>
+      </c>
+      <c r="G87">
+        <v>200</v>
+      </c>
+      <c r="H87">
+        <v>322</v>
+      </c>
+      <c r="I87">
+        <v>35</v>
+      </c>
+      <c r="J87">
+        <v>6.6</v>
+      </c>
+      <c r="K87" s="7">
+        <v>0.3831</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="M87" s="7">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>44478.558333333334</v>
+      </c>
+      <c r="B88" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>345</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>44478.558333333334</v>
+      </c>
+      <c r="B89" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" t="s">
+        <v>351</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>345</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="K89" s="7">
+        <v>0</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>44478.559027777781</v>
+      </c>
+      <c r="B90" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s">
+        <v>352</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>345</v>
+      </c>
+      <c r="F90">
+        <v>184</v>
+      </c>
+      <c r="G90">
+        <v>69</v>
+      </c>
+      <c r="H90">
+        <v>115</v>
+      </c>
+      <c r="I90">
+        <v>32</v>
+      </c>
+      <c r="J90">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="M90" s="7">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>44479.765277777777</v>
+      </c>
+      <c r="B91" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" t="s">
+        <v>313</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>345</v>
+      </c>
+      <c r="F91">
+        <v>3846</v>
+      </c>
+      <c r="G91">
+        <v>1369</v>
+      </c>
+      <c r="H91">
+        <v>2477</v>
+      </c>
+      <c r="I91">
+        <v>43</v>
+      </c>
+      <c r="J91">
+        <v>6.22</v>
+      </c>
+      <c r="K91" s="7">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0.1696</v>
+      </c>
+      <c r="M91" s="7">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91" t="s">
+        <v>158</v>
+      </c>
+      <c r="P91" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>44479.768750000003</v>
+      </c>
+      <c r="B92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>345</v>
+      </c>
+      <c r="F92">
+        <v>215</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+      <c r="H92">
+        <v>115</v>
+      </c>
+      <c r="I92">
+        <v>130</v>
+      </c>
+      <c r="J92">
+        <v>6.52</v>
+      </c>
+      <c r="K92" s="7">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="M92" s="7">
+        <v>3.8E-3</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92" t="s">
+        <v>354</v>
+      </c>
+      <c r="P92" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>44479.771527777775</v>
+      </c>
+      <c r="B93" t="s">
+        <v>279</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>345</v>
+      </c>
+      <c r="F93">
+        <v>1394</v>
+      </c>
+      <c r="G93">
+        <v>622</v>
+      </c>
+      <c r="H93">
+        <v>772</v>
+      </c>
+      <c r="I93">
+        <v>106</v>
+      </c>
+      <c r="J93">
+        <v>6.57</v>
+      </c>
+      <c r="K93" s="7">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0.4521</v>
+      </c>
+      <c r="M93" s="7">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93" t="s">
+        <v>354</v>
+      </c>
+      <c r="P93" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>44479.775000000001</v>
+      </c>
+      <c r="B94" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" t="s">
+        <v>191</v>
+      </c>
+      <c r="D94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" t="s">
+        <v>345</v>
+      </c>
+      <c r="F94">
+        <v>3043</v>
+      </c>
+      <c r="G94">
+        <v>1114</v>
+      </c>
+      <c r="H94">
+        <v>1929</v>
+      </c>
+      <c r="I94">
+        <v>44</v>
+      </c>
+      <c r="J94">
+        <v>6.37</v>
+      </c>
+      <c r="K94" s="7">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0.1729</v>
+      </c>
+      <c r="M94" s="7">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>158</v>
+      </c>
+      <c r="P94" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>44479.8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>345</v>
+      </c>
+      <c r="F95">
+        <v>3043</v>
+      </c>
+      <c r="G95">
+        <v>1114</v>
+      </c>
+      <c r="H95">
+        <v>1929</v>
+      </c>
+      <c r="I95">
+        <v>44</v>
+      </c>
+      <c r="J95">
+        <v>6.37</v>
+      </c>
+      <c r="K95" s="7">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0.1729</v>
+      </c>
+      <c r="M95" s="7">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95" t="s">
+        <v>158</v>
+      </c>
+      <c r="P95" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R81" xr:uid="{F142F9EB-8C48-4879-8B8E-705B72EBC6BD}">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:Q95" xr:uid="{6D621A45-9B8E-401F-BA56-458088F2CB39}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="CACALL"/>
+        <dateGroupItem year="2021" month="10" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Weekly"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R79">
-      <sortCondition descending="1" ref="M1:M81"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
